--- a/data/iartypre99.xlsx
+++ b/data/iartypre99.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.47111901515151516</v>
+        <v>0.9298305063964708</v>
       </c>
       <c r="B1">
-        <v>0.50849900767162359</v>
+        <v>0.88689039252981094</v>
       </c>
       <c r="C1">
-        <v>0.52888098484848489</v>
+        <v>0.07016949360352906</v>
       </c>
       <c r="D1">
-        <v>0.49150099232837635</v>
+        <v>0.11310960747018899</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.031836127102399268</v>
+        <v>0.0056297431941108303</v>
       </c>
       <c r="B2">
-        <v>0.024504595306774481</v>
+        <v>0.0071996561225252092</v>
       </c>
       <c r="C2">
-        <v>0.031836127102399268</v>
+        <v>0.0056297431941108303</v>
       </c>
       <c r="D2">
-        <v>0.024504595306774481</v>
+        <v>0.0071996561225252092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>14.798251484427897</v>
+        <v>165.16392921246376</v>
       </c>
       <c r="B3">
-        <v>20.751169374792539</v>
+        <v>123.18510459896004</v>
       </c>
       <c r="C3">
-        <v>16.612604389578117</v>
+        <v>12.464066509629083</v>
       </c>
       <c r="D3">
-        <v>20.057502936704168</v>
+        <v>15.710418045704785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.7821013604820501e-43</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7.9213993015934404e-75</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.8866871290290361e-52</v>
+        <v>5.4251319784681127e-35</v>
       </c>
       <c r="D4">
-        <v>5.6750250875895252e-71</v>
+        <v>5.6874921255215905e-54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.40861265683322007</v>
+        <v>0.91879297467535681</v>
       </c>
       <c r="B5">
-        <v>0.4603872191439724</v>
+        <v>0.87277492933841472</v>
       </c>
       <c r="C5">
-        <v>0.4663746265301898</v>
+        <v>0.059131961882415027</v>
       </c>
       <c r="D5">
-        <v>0.44338920380072516</v>
+        <v>0.098994144278792759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.5336253734698102</v>
+        <v>0.94086803811758479</v>
       </c>
       <c r="B6">
-        <v>0.55661079619927478</v>
+        <v>0.90100585572120717</v>
       </c>
       <c r="C6">
-        <v>0.59138734316677999</v>
+        <v>0.081207025324643092</v>
       </c>
       <c r="D6">
-        <v>0.53961278085602749</v>
+        <v>0.12722507066158523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B7">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C7">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D7">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B8">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C8">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D8">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="9">
@@ -182,114 +182,114 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.57230954545454549</v>
+        <v>0.94277451129635659</v>
       </c>
       <c r="B11">
-        <v>0.53754315438605538</v>
+        <v>0.89161787086684541</v>
       </c>
       <c r="C11">
-        <v>0.42769045454545457</v>
+        <v>0.057225488703643509</v>
       </c>
       <c r="D11">
-        <v>0.46245684561394462</v>
+        <v>0.10838212913315462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.031561272101199071</v>
+        <v>0.005204040250370745</v>
       </c>
       <c r="B12">
-        <v>0.024307306674464152</v>
+        <v>0.0070151117328044622</v>
       </c>
       <c r="C12">
-        <v>0.031561272101199071</v>
+        <v>0.005204040250370745</v>
       </c>
       <c r="D12">
-        <v>0.024307306674464152</v>
+        <v>0.0070151117328044622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>18.13328511029194</v>
+        <v>181.16203294722627</v>
       </c>
       <c r="B13">
-        <v>22.114467949292262</v>
+        <v>127.09959653207112</v>
       </c>
       <c r="C13">
-        <v>13.551115847741949</v>
+        <v>10.996357820169946</v>
       </c>
       <c r="D13">
-        <v>19.025425227377205</v>
+        <v>15.449807966184199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.7747368200194576e-60</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>1.7348374403642232e-82</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.6879011429493883e-37</v>
+        <v>1.0153619547528963e-27</v>
       </c>
       <c r="D14">
-        <v>2.6533495408379529e-65</v>
+        <v>2.6387628089256015e-52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.51034283145716086</v>
+        <v>0.93257160196978051</v>
       </c>
       <c r="B15">
-        <v>0.4898187180606256</v>
+        <v>0.87786422072539916</v>
       </c>
       <c r="C15">
-        <v>0.36572374054807</v>
+        <v>0.047022579377067483</v>
       </c>
       <c r="D15">
-        <v>0.41473240928851485</v>
+        <v>0.09462847899170837</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.63427625945193011</v>
+        <v>0.95297742062293267</v>
       </c>
       <c r="B16">
-        <v>0.58526759071148515</v>
+        <v>0.90537152100829166</v>
       </c>
       <c r="C16">
-        <v>0.48965716854283914</v>
+        <v>0.067428398030219536</v>
       </c>
       <c r="D16">
-        <v>0.5101812819393744</v>
+        <v>0.12213577927460087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B17">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C17">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D17">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B18">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C18">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D18">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="19">
@@ -308,44 +308,44 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.95657143939393952</v>
+        <v>0.99411667808779358</v>
       </c>
       <c r="B21">
-        <v>0.95395783794232103</v>
+        <v>0.98989107588644454</v>
       </c>
       <c r="C21">
-        <v>0.043428560606060609</v>
+        <v>0.0058833219122065399</v>
       </c>
       <c r="D21">
-        <v>0.046042162057678922</v>
+        <v>0.010108924113555283</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.012868461378186162</v>
+        <v>0.001711441798307704</v>
       </c>
       <c r="B22">
-        <v>0.010719270265982699</v>
+        <v>0.0023903744880719498</v>
       </c>
       <c r="C22">
-        <v>0.012868461378186162</v>
+        <v>0.001711441798307704</v>
       </c>
       <c r="D22">
-        <v>0.010719270265982699</v>
+        <v>0.0023903744880719498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>74.33456194036232</v>
+        <v>580.86502215312794</v>
       </c>
       <c r="B23">
-        <v>88.994662348395039</v>
+        <v>414.11547890342484</v>
       </c>
       <c r="C23">
-        <v>3.3748059950413403</v>
+        <v>3.4376406594860809</v>
       </c>
       <c r="D23">
-        <v>4.2952701923928931</v>
+        <v>4.2290127191363354</v>
       </c>
     </row>
     <row r="24">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.00077966321764252628</v>
+        <v>0.00059296820452614952</v>
       </c>
       <c r="D24">
-        <v>1.992955575100323e-05</v>
+        <v>2.4012408399593101e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.93130578269760644</v>
+        <v>0.99076126870474712</v>
       </c>
       <c r="B25">
-        <v>0.93291185624985362</v>
+        <v>0.98520456829138492</v>
       </c>
       <c r="C25">
-        <v>0.018162903909727513</v>
+        <v>0.0025279125291600268</v>
       </c>
       <c r="D25">
-        <v>0.0249961803652115</v>
+        <v>0.0054224165184956182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.98183709609027259</v>
+        <v>0.99747208747084004</v>
       </c>
       <c r="B26">
-        <v>0.97500381963478844</v>
+        <v>0.99457758348150416</v>
       </c>
       <c r="C26">
-        <v>0.068694217302393709</v>
+        <v>0.0092387312952530529</v>
       </c>
       <c r="D26">
-        <v>0.067088143750146351</v>
+        <v>0.014795431708614949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B27">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C27">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D27">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B28">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C28">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D28">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="29">
@@ -434,162 +434,162 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.38461538461538464</v>
+        <v>0.98057073466909528</v>
       </c>
       <c r="B31">
-        <v>0.51452282157676343</v>
+        <v>0.90217391304347827</v>
       </c>
       <c r="C31">
-        <v>0.49753694581280794</v>
+        <v>0.80497131931166344</v>
       </c>
       <c r="D31">
-        <v>0.61538461538461542</v>
+        <v>0.019429265330904676</v>
       </c>
       <c r="E31">
-        <v>0.48547717842323646</v>
+        <v>0.097826086956521743</v>
       </c>
       <c r="F31">
-        <v>0.50246305418719217</v>
+        <v>0.19502868068833651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.067466001485156094</v>
+        <v>0.0034011113740946091</v>
       </c>
       <c r="B32">
-        <v>0.032194242394802661</v>
+        <v>0.0085902713731072569</v>
       </c>
       <c r="C32">
-        <v>0.024814282265360855</v>
+        <v>0.012251058189644866</v>
       </c>
       <c r="D32">
-        <v>0.067466001485156094</v>
+        <v>0.0034011113740946091</v>
       </c>
       <c r="E32">
-        <v>0.032194242394802661</v>
+        <v>0.0085902713731072569</v>
       </c>
       <c r="F32">
-        <v>0.024814282265360855</v>
+        <v>0.012251058189644866</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>5.7008771254956905</v>
+        <v>288.30891635535681</v>
       </c>
       <c r="B33">
-        <v>15.981827286602849</v>
+        <v>105.02274885841535</v>
       </c>
       <c r="C33">
-        <v>20.050426624965798</v>
+        <v>65.706268540301323</v>
       </c>
       <c r="D33">
-        <v>9.1214034007931044</v>
+        <v>5.7126224912516523</v>
       </c>
       <c r="E33">
-        <v>15.079627359133333</v>
+        <v>11.388008912358291</v>
       </c>
       <c r="F33">
-        <v>20.24894570046051</v>
+        <v>15.919333470571818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.7613569551667125e-08</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>3.303163451818436e-49</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>6.2104710811144258e-71</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>7.8587871948241954e-19</v>
+        <v>1.1958496527949807e-08</v>
       </c>
       <c r="E34">
-        <v>1.1375296475733973e-44</v>
+        <v>1.405712155639328e-29</v>
       </c>
       <c r="F34">
-        <v>4.9347039071325068e-72</v>
+        <v>2.5202887509541119e-55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.25215410722539755</v>
+        <v>0.97390260197027512</v>
       </c>
       <c r="B35">
-        <v>0.451313347495856</v>
+        <v>0.88533204486149197</v>
       </c>
       <c r="C35">
-        <v>0.44881712465802093</v>
+        <v>0.78095220534446297</v>
       </c>
       <c r="D35">
-        <v>0.48292333799462833</v>
+        <v>0.012761132632084463</v>
       </c>
       <c r="E35">
-        <v>0.42226770434232902</v>
+        <v>0.080984218774535432</v>
       </c>
       <c r="F35">
-        <v>0.45374323303240516</v>
+        <v>0.17100956672113607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.51707666200537172</v>
+        <v>0.98723886736791544</v>
       </c>
       <c r="B36">
-        <v>0.57773229565767092</v>
+        <v>0.91901578122546457</v>
       </c>
       <c r="C36">
-        <v>0.54625676696759495</v>
+        <v>0.8289904332788639</v>
       </c>
       <c r="D36">
-        <v>0.74784589277460256</v>
+        <v>0.02609739802972489</v>
       </c>
       <c r="E36">
-        <v>0.54868665250414395</v>
+        <v>0.11466795513850805</v>
       </c>
       <c r="F36">
-        <v>0.55118287534197918</v>
+        <v>0.21904779465553695</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F37">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F38">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="39">
@@ -614,162 +614,162 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.69230769230769229</v>
+        <v>0.99028536733454753</v>
       </c>
       <c r="B41">
-        <v>0.53526970954356845</v>
+        <v>0.90635451505016706</v>
       </c>
       <c r="C41">
-        <v>0.53694581280788178</v>
+        <v>0.82026768642447423</v>
       </c>
       <c r="D41">
-        <v>0.30769230769230771</v>
+        <v>0.0097146326654523382</v>
       </c>
       <c r="E41">
-        <v>0.46473029045643155</v>
+        <v>0.093645484949832769</v>
       </c>
       <c r="F41">
-        <v>0.46305418719211822</v>
+        <v>0.17973231357552583</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.064003868795218744</v>
+        <v>0.0024168326150707988</v>
       </c>
       <c r="B42">
-        <v>0.032127601374482423</v>
+        <v>0.0084241653565879492</v>
       </c>
       <c r="C42">
-        <v>0.024746747157291381</v>
+        <v>0.011872031541319395</v>
       </c>
       <c r="D42">
-        <v>0.064003868795218744</v>
+        <v>0.0024168326150707988</v>
       </c>
       <c r="E42">
-        <v>0.032127601374482423</v>
+        <v>0.0084241653565879492</v>
       </c>
       <c r="F42">
-        <v>0.024746747157291381</v>
+        <v>0.011872031541319395</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>10.816653826391969</v>
+        <v>409.74511894591348</v>
       </c>
       <c r="B43">
-        <v>16.660742994922437</v>
+        <v>107.58982957775997</v>
       </c>
       <c r="C43">
-        <v>21.697631991591916</v>
+        <v>69.092445009905518</v>
       </c>
       <c r="D43">
-        <v>4.8074017006186525</v>
+        <v>4.0195719823020335</v>
       </c>
       <c r="E43">
-        <v>14.465141204893898</v>
+        <v>11.116292354897711</v>
       </c>
       <c r="F43">
-        <v>18.711719332198534</v>
+        <v>15.139137135037574</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.5959110826501981e-25</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>1.0615926282119151e-52</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>3.9025738522035958e-80</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.8746450495624585e-06</v>
+        <v>5.9409243578611863e-05</v>
       </c>
       <c r="E44">
-        <v>1.1765680584340443e-41</v>
+        <v>2.7784435248835528e-28</v>
       </c>
       <c r="F44">
-        <v>1.3465611190608102e-63</v>
+        <v>2.3770708375194516e-50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.56664389080937538</v>
+        <v>0.98554698660674234</v>
       </c>
       <c r="B45">
-        <v>0.47219107699000618</v>
+        <v>0.88983831011127823</v>
       </c>
       <c r="C45">
-        <v>0.4883585886128467</v>
+        <v>0.79699168249085683</v>
       </c>
       <c r="D45">
-        <v>0.1820285061939908</v>
+        <v>0.0049762519376471961</v>
       </c>
       <c r="E45">
-        <v>0.40165165790286927</v>
+        <v>0.077129280010943879</v>
       </c>
       <c r="F45">
-        <v>0.41446696299708313</v>
+        <v>0.15645630964190849</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.8179714938060092</v>
+        <v>0.99502374806235272</v>
       </c>
       <c r="B46">
-        <v>0.59834834209713073</v>
+        <v>0.9228707199890559</v>
       </c>
       <c r="C46">
-        <v>0.58553303700291681</v>
+        <v>0.84354369035809162</v>
       </c>
       <c r="D46">
-        <v>0.43335610919062462</v>
+        <v>0.014453013393257479</v>
       </c>
       <c r="E46">
-        <v>0.52780892300999382</v>
+        <v>0.11016168988872166</v>
       </c>
       <c r="F46">
-        <v>0.51164141138715324</v>
+        <v>0.20300831750914317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F47">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F48">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="49">
@@ -794,162 +794,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.92307692307692313</v>
+        <v>0.99757134183363694</v>
       </c>
       <c r="B51">
-        <v>0.950207468879668</v>
+        <v>0.98996655518394649</v>
       </c>
       <c r="C51">
-        <v>0.96551724137931028</v>
+        <v>0.98661567877629053</v>
       </c>
       <c r="D51">
-        <v>0.076923076923076927</v>
+        <v>0.0024286581663630845</v>
       </c>
       <c r="E51">
-        <v>0.049792531120331947</v>
+        <v>0.010033444816053512</v>
       </c>
       <c r="F51">
-        <v>0.034482758620689655</v>
+        <v>0.01338432122370937</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.036952650878097029</v>
+        <v>0.001212853591648541</v>
       </c>
       <c r="B52">
-        <v>0.014011440933502891</v>
+        <v>0.0028818389360194662</v>
       </c>
       <c r="C52">
-        <v>0.0090556160592912081</v>
+        <v>0.0035530910746276096</v>
       </c>
       <c r="D52">
-        <v>0.036952650878097029</v>
+        <v>0.001212853591648541</v>
       </c>
       <c r="E52">
-        <v>0.014011440933502891</v>
+        <v>0.0028818389360194662</v>
       </c>
       <c r="F52">
-        <v>0.0090556160592912081</v>
+        <v>0.0035530910746276096</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>24.979991993593597</v>
+        <v>822.4993920970403</v>
       </c>
       <c r="B53">
-        <v>67.816541738231777</v>
+        <v>343.51904362543439</v>
       </c>
       <c r="C53">
-        <v>106.62082348209474</v>
+        <v>277.67812815766206</v>
       </c>
       <c r="D53">
-        <v>2.0816659994661331</v>
+        <v>2.002433090924018</v>
       </c>
       <c r="E53">
-        <v>3.5537052439248091</v>
+        <v>3.4816119286361595</v>
       </c>
       <c r="F53">
-        <v>3.8078865529319552</v>
+        <v>3.766951350976036</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>8.136881104735096e-99</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>6.7469554492085468e-309</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.03773785207337594</v>
+        <v>0.045307531089481233</v>
       </c>
       <c r="E54">
-        <v>0.0004055079377448697</v>
+        <v>0.0005038942085943465</v>
       </c>
       <c r="F54">
-        <v>0.0001525282451042266</v>
+        <v>0.0001677010722992577</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.85052489345447813</v>
+        <v>0.99519345184304342</v>
       </c>
       <c r="B55">
-        <v>0.92269771102727027</v>
+        <v>0.98431649485708639</v>
       </c>
       <c r="C55">
-        <v>0.94773764210913691</v>
+        <v>0.9796495785312147</v>
       </c>
       <c r="D55">
-        <v>0.0043710473006319667</v>
+        <v>5.0768175769614222e-05</v>
       </c>
       <c r="E55">
-        <v>0.022282773267934271</v>
+        <v>0.0043833844891933921</v>
       </c>
       <c r="F55">
-        <v>0.01670315935051632</v>
+        <v>0.0064182209786335489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.99562895269936813</v>
+        <v>0.99994923182423046</v>
       </c>
       <c r="B56">
-        <v>0.97771722673206574</v>
+        <v>0.9956166155108066</v>
       </c>
       <c r="C56">
-        <v>0.98329684064948364</v>
+        <v>0.99358177902136635</v>
       </c>
       <c r="D56">
-        <v>0.14947510654552187</v>
+        <v>0.0048065481569565544</v>
       </c>
       <c r="E56">
-        <v>0.077302288972729616</v>
+        <v>0.015683505142913633</v>
       </c>
       <c r="F56">
-        <v>0.05226235789086299</v>
+        <v>0.020350421468785192</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F57">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F58">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="59">
@@ -974,258 +974,258 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.56787595302795024</v>
+        <v>0.91555411038624945</v>
       </c>
       <c r="B61">
-        <v>0.36228642413487133</v>
+        <v>0.86786400730994162</v>
       </c>
       <c r="C61">
-        <v>0.56525666666666663</v>
+        <v>0.9404954692927211</v>
       </c>
       <c r="D61">
-        <v>0.36019620535714286</v>
+        <v>0.91034799014056955</v>
       </c>
       <c r="E61">
-        <v>0.60639365079365082</v>
+        <v>0.91574914808461982</v>
       </c>
       <c r="F61">
-        <v>0.43212404697204965</v>
+        <v>0.08444588961375063</v>
       </c>
       <c r="G61">
-        <v>0.63771357586512867</v>
+        <v>0.13213599269005849</v>
       </c>
       <c r="H61">
-        <v>0.43474333333333337</v>
+        <v>0.059504530707278916</v>
       </c>
       <c r="I61">
-        <v>0.63980379464285719</v>
+        <v>0.089652009859430448</v>
       </c>
       <c r="J61">
-        <v>0.39360634920634918</v>
+        <v>0.084250851915380204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.026936176045027255</v>
+        <v>0.006539563893991805</v>
       </c>
       <c r="B62">
-        <v>0.041357064241456361</v>
+        <v>0.012403233125799901</v>
       </c>
       <c r="C62">
-        <v>0.09876287433282549</v>
+        <v>0.01757272868671781</v>
       </c>
       <c r="D62">
-        <v>0.04251597130312499</v>
+        <v>0.0090506063686767897</v>
       </c>
       <c r="E62">
-        <v>0.10868166030265734</v>
+        <v>0.025800579835395465</v>
       </c>
       <c r="F62">
-        <v>0.026936176045027255</v>
+        <v>0.006539563893991805</v>
       </c>
       <c r="G62">
-        <v>0.041357064241456361</v>
+        <v>0.012403233125799901</v>
       </c>
       <c r="H62">
-        <v>0.09876287433282549</v>
+        <v>0.01757272868671781</v>
       </c>
       <c r="I62">
-        <v>0.04251597130312499</v>
+        <v>0.0090506063686767897</v>
       </c>
       <c r="J62">
-        <v>0.10868166030265734</v>
+        <v>0.025800579835395465</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>21.082278051594002</v>
+        <v>140.00231899674696</v>
       </c>
       <c r="B63">
-        <v>8.7599647310486581</v>
+        <v>69.970788947335208</v>
       </c>
       <c r="C63">
-        <v>5.7233719703396089</v>
+        <v>53.520172425104711</v>
       </c>
       <c r="D63">
-        <v>8.4720210856541787</v>
+        <v>100.58419878818171</v>
       </c>
       <c r="E63">
-        <v>5.5795398147669273</v>
+        <v>35.493355340344564</v>
       </c>
       <c r="F63">
-        <v>16.042516437734115</v>
+        <v>12.913076618355991</v>
       </c>
       <c r="G63">
-        <v>15.419701266558567</v>
+        <v>10.65335073120597</v>
       </c>
       <c r="H63">
-        <v>4.4018902474250812</v>
+        <v>3.3861861619848987</v>
       </c>
       <c r="I63">
-        <v>15.048551756733136</v>
+        <v>9.9056357339444965</v>
       </c>
       <c r="J63">
-        <v>3.6216446096814479</v>
+        <v>3.2654635071339602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.1162715520219252e-76</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>1.4773936845288824e-17</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.552387181819922e-08</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1.4316278022513786e-16</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>3.4553847683115436e-08</v>
+        <v>2.9301471976336904e-239</v>
       </c>
       <c r="F64">
-        <v>1.6192746832783274e-49</v>
+        <v>2.2079764265925768e-37</v>
       </c>
       <c r="G64">
-        <v>2.2941725669528697e-46</v>
+        <v>3.8466234332201756e-26</v>
       </c>
       <c r="H64">
-        <v>1.2416656933463621e-05</v>
+        <v>0.00071574813728939989</v>
       </c>
       <c r="I64">
-        <v>1.6216141426123722e-44</v>
+        <v>7.3256171907126288e-23</v>
       </c>
       <c r="J64">
-        <v>0.00031400722426653497</v>
+        <v>0.0011023297368164136</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.51499005185725588</v>
+        <v>0.90273280727642136</v>
       </c>
       <c r="B65">
-        <v>0.28108686527664573</v>
+        <v>0.84354654302247667</v>
       </c>
       <c r="C65">
-        <v>0.37134779101303539</v>
+        <v>0.90604282312067619</v>
       </c>
       <c r="D65">
-        <v>0.27672127362390442</v>
+        <v>0.89260360084158941</v>
       </c>
       <c r="E65">
-        <v>0.39301044687393905</v>
+        <v>0.86516518563066458</v>
       </c>
       <c r="F65">
-        <v>0.37923814580135534</v>
+        <v>0.07162458650392256</v>
       </c>
       <c r="G65">
-        <v>0.55651401700690306</v>
+        <v>0.10781852840259358</v>
       </c>
       <c r="H65">
-        <v>0.24083445767970213</v>
+        <v>0.025051884535234006</v>
       </c>
       <c r="I65">
-        <v>0.55632886290961869</v>
+        <v>0.071907620560450261</v>
       </c>
       <c r="J65">
-        <v>0.18022314528663738</v>
+        <v>0.033666889461424925</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.6207618541986446</v>
+        <v>0.92837541349607755</v>
       </c>
       <c r="B66">
-        <v>0.44348598299309694</v>
+        <v>0.89218147159740657</v>
       </c>
       <c r="C66">
-        <v>0.75916554232029787</v>
+        <v>0.97494811546476601</v>
       </c>
       <c r="D66">
-        <v>0.44367113709038131</v>
+        <v>0.9280923794395497</v>
       </c>
       <c r="E66">
-        <v>0.81977685471336259</v>
+        <v>0.96633311053857507</v>
       </c>
       <c r="F66">
-        <v>0.48500994814274395</v>
+        <v>0.097267192723578699</v>
       </c>
       <c r="G66">
-        <v>0.71891313472335427</v>
+        <v>0.15645345697752341</v>
       </c>
       <c r="H66">
-        <v>0.62865220898696461</v>
+        <v>0.093957176879323825</v>
       </c>
       <c r="I66">
-        <v>0.72327872637609569</v>
+        <v>0.10739639915841064</v>
       </c>
       <c r="J66">
-        <v>0.60698955312606095</v>
+        <v>0.13483481436933548</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="G67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="H67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="I67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="J67">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="G68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="H68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="I68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="J68">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="69">
@@ -1262,258 +1262,258 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.47344816462862321</v>
+        <v>0.8933739678034881</v>
       </c>
       <c r="B71">
-        <v>0.66207574682046721</v>
+        <v>0.93366833625731016</v>
       </c>
       <c r="C71">
-        <v>0.83505333333333343</v>
+        <v>0.97601588419405316</v>
       </c>
       <c r="D71">
-        <v>0.65271629464285708</v>
+        <v>0.95239406435430607</v>
       </c>
       <c r="E71">
-        <v>0.52643492063492059</v>
+        <v>0.91084548313321889</v>
       </c>
       <c r="F71">
-        <v>0.52655183537137684</v>
+        <v>0.10662603219651194</v>
       </c>
       <c r="G71">
-        <v>0.33792425317953267</v>
+        <v>0.066331663742690061</v>
       </c>
       <c r="H71">
-        <v>0.16494666666666666</v>
+        <v>0.023984115805946796</v>
       </c>
       <c r="I71">
-        <v>0.34728370535714287</v>
+        <v>0.047605935645693917</v>
       </c>
       <c r="J71">
-        <v>0.47356507936507936</v>
+        <v>0.089154516866781025</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.026895309282469689</v>
+        <v>0.0070034723957413262</v>
       </c>
       <c r="B72">
-        <v>0.040969851008567849</v>
+        <v>0.0096505085583929034</v>
       </c>
       <c r="C72">
-        <v>0.074940727398144211</v>
+        <v>0.011792372158392928</v>
       </c>
       <c r="D72">
-        <v>0.042270157721694131</v>
+        <v>0.0069378857103817209</v>
       </c>
       <c r="E72">
-        <v>0.11433262107732171</v>
+        <v>0.026871040660618132</v>
       </c>
       <c r="F72">
-        <v>0.026895309282469689</v>
+        <v>0.0070034723957413262</v>
       </c>
       <c r="G72">
-        <v>0.040969851008567849</v>
+        <v>0.0096505085583929034</v>
       </c>
       <c r="H72">
-        <v>0.074940727398144211</v>
+        <v>0.011792372158392928</v>
       </c>
       <c r="I72">
-        <v>0.042270157721694131</v>
+        <v>0.0069378857103817209</v>
       </c>
       <c r="J72">
-        <v>0.11433262107732171</v>
+        <v>0.026871040660618132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>17.603373125633318</v>
+        <v>127.5615747906326</v>
       </c>
       <c r="B73">
-        <v>16.160072114541254</v>
+        <v>96.748096808360714</v>
       </c>
       <c r="C73">
-        <v>11.142850654449509</v>
+        <v>82.766713184115218</v>
       </c>
       <c r="D73">
-        <v>15.441539133596994</v>
+        <v>137.27439512720159</v>
       </c>
       <c r="E73">
-        <v>4.6044157448196632</v>
+        <v>33.896918792138294</v>
       </c>
       <c r="F73">
-        <v>19.577831578035887</v>
+        <v>15.224737983025268</v>
       </c>
       <c r="G73">
-        <v>8.2481201386078755</v>
+        <v>6.8733853082801941</v>
       </c>
       <c r="H73">
-        <v>2.2010283645945945</v>
+        <v>2.0338669339634685</v>
       </c>
       <c r="I73">
-        <v>8.2158128588885759</v>
+        <v>6.8617353518028263</v>
       </c>
       <c r="J73">
-        <v>4.141994427336825</v>
+        <v>3.3178661739530169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.1934187365210677e-57</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>4.0560001628854342e-50</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1.1959732578120094e-26</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1.7829177698836672e-46</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4.9173675608294119e-06</v>
+        <v>7.0207167587549513e-221</v>
       </c>
       <c r="F74">
-        <v>2.5103535374951821e-68</v>
+        <v>6.9334652359940421e-51</v>
       </c>
       <c r="G74">
-        <v>8.0319698195304267e-16</v>
+        <v>7.2727435829312048e-12</v>
       </c>
       <c r="H74">
-        <v>0.028061603306170246</v>
+        <v>0.042032806598246084</v>
       </c>
       <c r="I74">
-        <v>1.0270280270970759e-15</v>
+        <v>7.8836559978326382e-12</v>
       </c>
       <c r="J74">
-        <v>3.8662601729008902e-05</v>
+        <v>0.00091542586942543126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.42064250036914352</v>
+        <v>0.87964313745108325</v>
       </c>
       <c r="B75">
-        <v>0.58163643398722664</v>
+        <v>0.91474779394028749</v>
       </c>
       <c r="C75">
-        <v>0.68791634194253537</v>
+        <v>0.9528960584262276</v>
       </c>
       <c r="D75">
-        <v>0.56972398793969847</v>
+        <v>0.93879182159376451</v>
       </c>
       <c r="E75">
-        <v>0.30195674345141688</v>
+        <v>0.85816280233506548</v>
       </c>
       <c r="F75">
-        <v>0.47374617111189715</v>
+        <v>0.092895201844107128</v>
       </c>
       <c r="G75">
-        <v>0.25748494034629205</v>
+        <v>0.047411121425667432</v>
       </c>
       <c r="H75">
-        <v>0.017809675275868547</v>
+        <v>0.00086429003812128063</v>
       </c>
       <c r="I75">
-        <v>0.26429139865398421</v>
+        <v>0.034003692885152384</v>
       </c>
       <c r="J75">
-        <v>0.24908690218157561</v>
+        <v>0.03647183606862759</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.5262538288881029</v>
+        <v>0.90710479815589296</v>
       </c>
       <c r="B76">
-        <v>0.74251505965370779</v>
+        <v>0.95258887857433283</v>
       </c>
       <c r="C76">
-        <v>0.98219032472413148</v>
+        <v>0.99913570996187873</v>
       </c>
       <c r="D76">
-        <v>0.73570860134601568</v>
+        <v>0.96599630711484763</v>
       </c>
       <c r="E76">
-        <v>0.7509130978184243</v>
+        <v>0.96352816393137231</v>
       </c>
       <c r="F76">
-        <v>0.57935749963085659</v>
+        <v>0.12035686254891675</v>
       </c>
       <c r="G76">
-        <v>0.4183635660127733</v>
+        <v>0.08525220605971269</v>
       </c>
       <c r="H76">
-        <v>0.31208365805746474</v>
+        <v>0.047103941573772311</v>
       </c>
       <c r="I76">
-        <v>0.43027601206030153</v>
+        <v>0.06120817840623545</v>
       </c>
       <c r="J76">
-        <v>0.69804325654858312</v>
+        <v>0.14183719766493447</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="G77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="H77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="I77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="J77">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="G78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="H78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="I78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="J78">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="79">
@@ -1550,98 +1550,98 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.95867588234342649</v>
+        <v>0.99232877713525591</v>
       </c>
       <c r="B81">
-        <v>0.97563782904466145</v>
+        <v>0.9952481666666666</v>
       </c>
       <c r="C81">
-        <v>0.59969000000000006</v>
+        <v>0.94359953433337151</v>
       </c>
       <c r="D81">
-        <v>0.98708750000000001</v>
+        <v>0.99920788381742742</v>
       </c>
       <c r="E81">
-        <v>0.86717142857142859</v>
+        <v>0.97819090909090911</v>
       </c>
       <c r="F81">
-        <v>0.041324117656573497</v>
+        <v>0.0076712228647441583</v>
       </c>
       <c r="G81">
-        <v>0.024362170955338658</v>
+        <v>0.0047518333333333336</v>
       </c>
       <c r="H81">
-        <v>0.40031000000000005</v>
+        <v>0.056400465666628499</v>
       </c>
       <c r="I81">
-        <v>0.012912499999999999</v>
+        <v>0.00079211618257261419</v>
       </c>
       <c r="J81">
-        <v>0.13282857142857143</v>
+        <v>0.02180909090909091</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.011561416149060928</v>
+        <v>0.0021324604545739133</v>
       </c>
       <c r="B82">
-        <v>0.013917992385696088</v>
+        <v>0.0027328617578761703</v>
       </c>
       <c r="C82">
-        <v>0.098762874332825504</v>
+        <v>0.017303195632044722</v>
       </c>
       <c r="D82">
-        <v>0.01207853775167963</v>
+        <v>0.00079129405865356768</v>
       </c>
       <c r="E82">
-        <v>0.079380254354222815</v>
+        <v>0.014703686091357434</v>
       </c>
       <c r="F82">
-        <v>0.011561416149060928</v>
+        <v>0.0021324604545739133</v>
       </c>
       <c r="G82">
-        <v>0.013917992385696088</v>
+        <v>0.0027328617578761703</v>
       </c>
       <c r="H82">
-        <v>0.098762874332825504</v>
+        <v>0.017303195632044722</v>
       </c>
       <c r="I82">
-        <v>0.01207853775167963</v>
+        <v>0.00079129405865356768</v>
       </c>
       <c r="J82">
-        <v>0.079380254354222815</v>
+        <v>0.014703686091357434</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82.92028156267817</v>
+        <v>465.34451553688154</v>
       </c>
       <c r="B83">
-        <v>70.099034545194314</v>
+        <v>364.17801368779027</v>
       </c>
       <c r="C83">
-        <v>6.0720184993713069</v>
+        <v>54.533252377142901</v>
       </c>
       <c r="D83">
-        <v>81.722433649945458</v>
+        <v>1262.7516570990524</v>
       </c>
       <c r="E83">
-        <v>10.92427122621455</v>
+        <v>66.526917333053802</v>
       </c>
       <c r="F83">
-        <v>3.5743127938466288</v>
+        <v>3.5973576195939092</v>
       </c>
       <c r="G83">
-        <v>1.7504084123782353</v>
+        <v>1.7387755965476266</v>
       </c>
       <c r="H83">
-        <v>4.0532437183933832</v>
+        <v>3.2595404262885075</v>
       </c>
       <c r="I83">
-        <v>1.0690449676496974</v>
+        <v>1.0010389613191908</v>
       </c>
       <c r="J83">
-        <v>1.6733200530681509</v>
+        <v>1.4832396974191326</v>
       </c>
     </row>
     <row r="84">
@@ -1649,159 +1649,159 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>1.2566658515101274e-317</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>2.0767062691863819e-09</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>9.4702986789887599e-26</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.00037540574530383215</v>
+        <v>0.00032546867741054658</v>
       </c>
       <c r="G84">
-        <v>0.080488461939371869</v>
+        <v>0.082153437805300711</v>
       </c>
       <c r="H84">
-        <v>5.6209836751401393e-05</v>
+        <v>0.0011255428748620259</v>
       </c>
       <c r="I84">
-        <v>0.28542002328083588</v>
+        <v>0.31687030053070175</v>
       </c>
       <c r="J84">
-        <v>0.094713645914958011</v>
+        <v>0.13809183204897102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.93597644977250727</v>
+        <v>0.98814792925288664</v>
       </c>
       <c r="B85">
-        <v>0.94831154603500289</v>
+        <v>0.98989018721681676</v>
       </c>
       <c r="C85">
-        <v>0.40578112434636882</v>
+        <v>0.90967532783224359</v>
       </c>
       <c r="D85">
-        <v>0.96337276214136636</v>
+        <v>0.99765649275535295</v>
       </c>
       <c r="E85">
-        <v>0.71131796668194769</v>
+        <v>0.94936323506477738</v>
       </c>
       <c r="F85">
-        <v>0.018624685085654288</v>
+        <v>0.0034903749823749341</v>
       </c>
       <c r="G85">
-        <v>-0.002964112054319866</v>
+        <v>-0.00060614611651648147</v>
       </c>
       <c r="H85">
-        <v>0.20640112434636879</v>
+        <v>0.022476259165500563</v>
       </c>
       <c r="I85">
-        <v>-0.010802237858633669</v>
+        <v>-0.00075927487950180265</v>
       </c>
       <c r="J85">
-        <v>-0.023024890460909497</v>
+        <v>-0.007018583117040858</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.98137531491434571</v>
+        <v>0.99650962501762519</v>
       </c>
       <c r="B86">
-        <v>1.00296411205432</v>
+        <v>1.0006061461165163</v>
       </c>
       <c r="C86">
-        <v>0.7935988756536313</v>
+        <v>0.97752374083449944</v>
       </c>
       <c r="D86">
-        <v>1.0108022378586337</v>
+        <v>1.0007592748795018</v>
       </c>
       <c r="E86">
-        <v>1.0230248904609096</v>
+        <v>1.0070185831170408</v>
       </c>
       <c r="F86">
-        <v>0.064023550227492704</v>
+        <v>0.011852070747113383</v>
       </c>
       <c r="G86">
-        <v>0.051688453964997182</v>
+        <v>0.01010981278318315</v>
       </c>
       <c r="H86">
-        <v>0.5942188756536313</v>
+        <v>0.090324672167756442</v>
       </c>
       <c r="I86">
-        <v>0.036627237858633664</v>
+        <v>0.0023435072446470308</v>
       </c>
       <c r="J86">
-        <v>0.28868203331805237</v>
+        <v>0.050636764935222678</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="G87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="H87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="I87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="J87">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="G88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="H88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="I88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="J88">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="89">
@@ -1838,162 +1838,162 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.3783545552297165</v>
+        <v>0.88626006837979787</v>
       </c>
       <c r="B91">
-        <v>0.55100837733884167</v>
+        <v>0.91580819289163018</v>
       </c>
       <c r="C91">
-        <v>0.70023473495058397</v>
+        <v>0.95065710827735539</v>
       </c>
       <c r="D91">
-        <v>0.6216454447702835</v>
+        <v>0.11373993162020221</v>
       </c>
       <c r="E91">
-        <v>0.44899162266115844</v>
+        <v>0.084191807108369987</v>
       </c>
       <c r="F91">
-        <v>0.29976526504941603</v>
+        <v>0.049342891722644625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.028224531898039921</v>
+        <v>0.0077647741654069168</v>
       </c>
       <c r="B92">
-        <v>0.02940275403863158</v>
+        <v>0.0069197823504532604</v>
       </c>
       <c r="C92">
-        <v>0.049478750626163026</v>
+        <v>0.0090847121080766518</v>
       </c>
       <c r="D92">
-        <v>0.028224531898039921</v>
+        <v>0.0077647741654069168</v>
       </c>
       <c r="E92">
-        <v>0.02940275403863158</v>
+        <v>0.0069197823504532604</v>
       </c>
       <c r="F92">
-        <v>0.049478750626163026</v>
+        <v>0.0090847121080766518</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>13.405166703791878</v>
+        <v>114.13855052323379</v>
       </c>
       <c r="B93">
-        <v>18.740026074254299</v>
+        <v>132.34638699751054</v>
       </c>
       <c r="C93">
-        <v>14.152231535537576</v>
+        <v>104.64361412533759</v>
       </c>
       <c r="D93">
-        <v>22.02500459585848</v>
+        <v>14.64819571017641</v>
       </c>
       <c r="E93">
-        <v>15.27039344924081</v>
+        <v>12.16682878802615</v>
       </c>
       <c r="F93">
-        <v>6.0584647198207193</v>
+        <v>5.4314205156569502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.2899551858249011e-36</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>9.4560951559261181e-64</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.804857003319886e-40</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>5.5558000498290373e-82</v>
+        <v>2.4743833328567874e-47</v>
       </c>
       <c r="E94">
-        <v>1.2800828490628658e-45</v>
+        <v>1.8811522173569876e-33</v>
       </c>
       <c r="F94">
-        <v>2.2498831041957672e-09</v>
+        <v>5.9330890484273335e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.32293912424747007</v>
+        <v>0.87103664908642431</v>
       </c>
       <c r="B95">
-        <v>0.49327965067645513</v>
+        <v>0.90224144311941501</v>
       </c>
       <c r="C95">
-        <v>0.60308923399712677</v>
+        <v>0.93284585213072013</v>
       </c>
       <c r="D95">
-        <v>0.56623001378803706</v>
+        <v>0.098516512326828606</v>
       </c>
       <c r="E95">
-        <v>0.3912628959987719</v>
+        <v>0.070625057336154845</v>
       </c>
       <c r="F95">
-        <v>0.2026197640959588</v>
+        <v>0.031531635576009326</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.43376998621196294</v>
+        <v>0.90148348767317144</v>
       </c>
       <c r="B96">
-        <v>0.60873710400122816</v>
+        <v>0.92937494266384535</v>
       </c>
       <c r="C96">
-        <v>0.79738023590404117</v>
+        <v>0.96846836442399065</v>
       </c>
       <c r="D96">
-        <v>0.67706087575252993</v>
+        <v>0.12896335091357583</v>
       </c>
       <c r="E96">
-        <v>0.50672034932354504</v>
+        <v>0.097758556880585129</v>
       </c>
       <c r="F96">
-        <v>0.39691076600287323</v>
+        <v>0.067154147869279923</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F97">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F98">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="99">
@@ -2018,162 +2018,162 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.68012218963831872</v>
+        <v>0.94105421508556808</v>
       </c>
       <c r="B101">
-        <v>0.48989520466859549</v>
+        <v>0.90089278157133312</v>
       </c>
       <c r="C101">
-        <v>0.31415859838274934</v>
+        <v>0.8850149904037794</v>
       </c>
       <c r="D101">
-        <v>0.31987781036168139</v>
+        <v>0.058945784914431899</v>
       </c>
       <c r="E101">
-        <v>0.5101047953314044</v>
+        <v>0.099107218428666849</v>
       </c>
       <c r="F101">
-        <v>0.68584140161725071</v>
+        <v>0.11498500959622056</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.027127379757264786</v>
+        <v>0.0057900997435989116</v>
       </c>
       <c r="B102">
-        <v>0.029294245259178422</v>
+        <v>0.0074041018346487882</v>
       </c>
       <c r="C102">
-        <v>0.050377768735676322</v>
+        <v>0.012900195672680149</v>
       </c>
       <c r="D102">
-        <v>0.027127379757264786</v>
+        <v>0.0057900997435989116</v>
       </c>
       <c r="E102">
-        <v>0.029294245259178422</v>
+        <v>0.0074041018346487882</v>
       </c>
       <c r="F102">
-        <v>0.050377768735676322</v>
+        <v>0.012900195672680149</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>25.071429519696984</v>
+        <v>162.52815266713242</v>
       </c>
       <c r="B103">
-        <v>16.723257429378638</v>
+        <v>121.67482318455534</v>
       </c>
       <c r="C103">
-        <v>6.2360562261319403</v>
+        <v>68.604772583260228</v>
       </c>
       <c r="D103">
-        <v>11.791695815222155</v>
+        <v>10.180443778986334</v>
       </c>
       <c r="E103">
-        <v>17.413140049122081</v>
+        <v>13.385447775026176</v>
       </c>
       <c r="F103">
-        <v>13.6139693922481</v>
+        <v>8.9134314326513806</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2.4351848040166705e-99</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>5.0254990944233805e-53</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>7.7830218243057354e-10</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>2.1868023478218689e-29</v>
+        <v>4.8439660982150558e-24</v>
       </c>
       <c r="E104">
-        <v>1.2140576008057891e-56</v>
+        <v>5.5799316313134144e-40</v>
       </c>
       <c r="F104">
-        <v>1.3638543340133148e-37</v>
+        <v>7.4604618826321898e-19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.62686088326489775</v>
+        <v>0.92970229238059632</v>
       </c>
       <c r="B105">
-        <v>0.4323795217796354</v>
+        <v>0.88637648730203433</v>
       </c>
       <c r="C105">
-        <v>0.21524798486057017</v>
+        <v>0.8597231939511929</v>
       </c>
       <c r="D105">
-        <v>0.26661650398826042</v>
+        <v>0.047593862209460096</v>
       </c>
       <c r="E105">
-        <v>0.45258911244244432</v>
+        <v>0.084590924159368114</v>
       </c>
       <c r="F105">
-        <v>0.5869307880950716</v>
+        <v>0.089693213143634085</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.73338349601173969</v>
+        <v>0.95240613779053984</v>
       </c>
       <c r="B106">
-        <v>0.54741088755755551</v>
+        <v>0.91540907584063191</v>
       </c>
       <c r="C106">
-        <v>0.41306921190492851</v>
+        <v>0.9103067868563659</v>
       </c>
       <c r="D106">
-        <v>0.37313911673510236</v>
+        <v>0.07029770761940371</v>
       </c>
       <c r="E106">
-        <v>0.56762047822036443</v>
+        <v>0.11362351269796558</v>
       </c>
       <c r="F106">
-        <v>0.78475201513942983</v>
+        <v>0.14027680604880702</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F107">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F108">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="109">
@@ -2198,162 +2198,162 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.94152325513196478</v>
+        <v>0.98923367247447802</v>
       </c>
       <c r="B111">
-        <v>0.95909641799256296</v>
+        <v>0.99320730740017693</v>
       </c>
       <c r="C111">
-        <v>0.98560666666666674</v>
+        <v>0.99817246376811597</v>
       </c>
       <c r="D111">
-        <v>0.058476744868035203</v>
+        <v>0.010766327525522038</v>
       </c>
       <c r="E111">
-        <v>0.040903582007437135</v>
+        <v>0.0067926925998229651</v>
       </c>
       <c r="F111">
-        <v>0.014393333333333336</v>
+        <v>0.0018275362318840578</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.013807574682302332</v>
+        <v>0.0025957287433557032</v>
       </c>
       <c r="B112">
-        <v>0.01211404696857963</v>
+        <v>0.0020789193956957178</v>
       </c>
       <c r="C112">
-        <v>0.014151411341734187</v>
+        <v>0.0018231165489161253</v>
       </c>
       <c r="D112">
-        <v>0.013807574682302332</v>
+        <v>0.0025957287433557032</v>
       </c>
       <c r="E112">
-        <v>0.01211404696857963</v>
+        <v>0.0020789193956957178</v>
       </c>
       <c r="F112">
-        <v>0.014151411341734187</v>
+        <v>0.0018231165489161253</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>68.188894631781295</v>
+        <v>381.10055798650887</v>
       </c>
       <c r="B113">
-        <v>79.172255191034381</v>
+        <v>477.75171536547072</v>
       </c>
       <c r="C113">
-        <v>69.647234672629153</v>
+        <v>547.50886023252156</v>
       </c>
       <c r="D113">
-        <v>4.2351206648179103</v>
+        <v>4.1477090212452472</v>
       </c>
       <c r="E113">
-        <v>3.3765414740036355</v>
+        <v>3.2674150878032315</v>
       </c>
       <c r="F113">
-        <v>1.0170952554312158</v>
+        <v>1.0024242459817285</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2.4558685616137164e-310</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>6.4595447858720886e-316</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>2.5912441377166192e-05</v>
+        <v>3.4299679731208065e-05</v>
       </c>
       <c r="E114">
-        <v>0.00077484057958300469</v>
+        <v>0.0010947788321550107</v>
       </c>
       <c r="F114">
-        <v>0.30946153482269562</v>
+        <v>0.31620115082251243</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.91441376383540673</v>
+        <v>0.98414455253483912</v>
       </c>
       <c r="B115">
-        <v>0.93531196211113043</v>
+        <v>0.98913143075990062</v>
       </c>
       <c r="C115">
-        <v>0.95782209396437468</v>
+        <v>0.99459810770139523</v>
       </c>
       <c r="D115">
-        <v>0.031367253571477148</v>
+        <v>0.0056772075858830982</v>
       </c>
       <c r="E115">
-        <v>0.017119126126004577</v>
+        <v>0.0027168159595466861</v>
       </c>
       <c r="F115">
-        <v>-0.013391239368958694</v>
+        <v>-0.0017468198348366526</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.96863274642852282</v>
+        <v>0.99432279241411692</v>
       </c>
       <c r="B116">
-        <v>0.98288087387399548</v>
+        <v>0.99728318404045324</v>
       </c>
       <c r="C116">
-        <v>1.0133912393689588</v>
+        <v>1.0017468198348367</v>
       </c>
       <c r="D116">
-        <v>0.085586236164593266</v>
+        <v>0.015855447465160977</v>
       </c>
       <c r="E116">
-        <v>0.06468803788886969</v>
+        <v>0.010868569240099244</v>
       </c>
       <c r="F116">
-        <v>0.042177906035625365</v>
+        <v>0.0054018922986047678</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F117">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F118">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="119">
@@ -2378,306 +2378,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.14469301782461616</v>
+        <v>0.91620191211149538</v>
       </c>
       <c r="B121">
-        <v>0.47630230160852849</v>
+        <v>0.92680051102206207</v>
       </c>
       <c r="C121">
-        <v>0.49529080730786806</v>
+        <v>0.91304823133690272</v>
       </c>
       <c r="D121">
-        <v>0.49340106997451649</v>
+        <v>0.89831174766675037</v>
       </c>
       <c r="E121">
-        <v>0.50517954233471551</v>
+        <v>0.88168863619854621</v>
       </c>
       <c r="F121">
-        <v>0.53516643474963732</v>
+        <v>0.84589165870780181</v>
       </c>
       <c r="G121">
-        <v>0.8553069821753837</v>
+        <v>0.083798087888504694</v>
       </c>
       <c r="H121">
-        <v>0.5236976983914714</v>
+        <v>0.07319948897793796</v>
       </c>
       <c r="I121">
-        <v>0.50470919269213188</v>
+        <v>0.086951768663097256</v>
       </c>
       <c r="J121">
-        <v>0.50659893002548351</v>
+        <v>0.10168825233324956</v>
       </c>
       <c r="K121">
-        <v>0.49482045766528449</v>
+        <v>0.11831136380145382</v>
       </c>
       <c r="L121">
-        <v>0.46483356525036268</v>
+        <v>0.15410834129219825</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.12750628077501114</v>
+        <v>0.050670172467776185</v>
       </c>
       <c r="B122">
-        <v>0.042909668057989653</v>
+        <v>0.0080275326889612808</v>
       </c>
       <c r="C122">
-        <v>0.035408107410129556</v>
+        <v>0.0075373836518606825</v>
       </c>
       <c r="D122">
-        <v>0.04202683727454317</v>
+        <v>0.011162524049001931</v>
       </c>
       <c r="E122">
-        <v>0.05775531398892228</v>
+        <v>0.017927253460947503</v>
       </c>
       <c r="F122">
-        <v>0.083435871085833141</v>
+        <v>0.033678469499656867</v>
       </c>
       <c r="G122">
-        <v>0.12750628077501114</v>
+        <v>0.050670172467776171</v>
       </c>
       <c r="H122">
-        <v>0.042909668057989653</v>
+        <v>0.0080275326889612721</v>
       </c>
       <c r="I122">
-        <v>0.035408107410129563</v>
+        <v>0.0075373836518606904</v>
       </c>
       <c r="J122">
-        <v>0.04202683727454317</v>
+        <v>0.011162524049001936</v>
       </c>
       <c r="K122">
-        <v>0.057755313988922273</v>
+        <v>0.017927253460947506</v>
       </c>
       <c r="L122">
-        <v>0.083435871085833141</v>
+        <v>0.03367846949965686</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.1347912976924766</v>
+        <v>18.081681342098374</v>
       </c>
       <c r="B123">
-        <v>11.100116201431263</v>
+        <v>115.45272338741296</v>
       </c>
       <c r="C123">
-        <v>13.988062156809184</v>
+        <v>121.13596355301712</v>
       </c>
       <c r="D123">
-        <v>11.740142774754629</v>
+        <v>80.475683073405847</v>
       </c>
       <c r="E123">
-        <v>8.7468928388409619</v>
+        <v>49.181467653101762</v>
       </c>
       <c r="F123">
-        <v>6.4141049621102963</v>
+        <v>25.116689424275059</v>
       </c>
       <c r="G123">
-        <v>6.7079596156098376</v>
+        <v>1.6537951975947252</v>
       </c>
       <c r="H123">
-        <v>12.204655083412151</v>
+        <v>9.1185538339314629</v>
       </c>
       <c r="I123">
-        <v>14.254057322130256</v>
+        <v>11.536067776201389</v>
       </c>
       <c r="J123">
-        <v>12.054176875506752</v>
+        <v>9.1097902129350139</v>
       </c>
       <c r="K123">
-        <v>8.5675312536642654</v>
+        <v>6.5995253572546257</v>
       </c>
       <c r="L123">
-        <v>5.571147747378026</v>
+        <v>4.5758712786449047</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.25700606509392832</v>
+        <v>9.852436699346031e-56</v>
       </c>
       <c r="B124">
-        <v>1.0864934348712092e-24</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>2.1372957692353014e-35</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1.8090346514576916e-28</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>2.3373600082878679e-17</v>
+        <v>1.3809644059228342e-220</v>
       </c>
       <c r="F124">
-        <v>1.0271610593256941e-09</v>
+        <v>3.0268787111386176e-61</v>
       </c>
       <c r="G124">
-        <v>5.3508182710749851e-11</v>
+        <v>0.098843932526643127</v>
       </c>
       <c r="H124">
-        <v>9.9003603504004402e-29</v>
+        <v>2.9762369670068494e-19</v>
       </c>
       <c r="I124">
-        <v>1.9895374675607547e-36</v>
+        <v>1.8464944903198749e-29</v>
       </c>
       <c r="J124">
-        <v>9.2533559403546346e-30</v>
+        <v>1.8994308743312126e-19</v>
       </c>
       <c r="K124">
-        <v>9.4225582786881346e-17</v>
+        <v>8.6017840642606514e-11</v>
       </c>
       <c r="L124">
-        <v>8.2252785676812097e-08</v>
+        <v>8.7208629606656316e-06</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.10582062775793469</v>
+        <v>0.81663105936803593</v>
       </c>
       <c r="B125">
-        <v>0.3919053322815978</v>
+        <v>0.91105150431294091</v>
       </c>
       <c r="C125">
-        <v>0.42564285282090752</v>
+        <v>0.89826228276982267</v>
       </c>
       <c r="D125">
-        <v>0.41084263452878578</v>
+        <v>0.87642074414327198</v>
       </c>
       <c r="E125">
-        <v>0.39174625631730803</v>
+        <v>0.84648591289584718</v>
       </c>
       <c r="F125">
-        <v>0.3706252530933315</v>
+        <v>0.77944430485422744</v>
       </c>
       <c r="G125">
-        <v>0.60479333659283241</v>
+        <v>-0.015772764854954754</v>
       </c>
       <c r="H125">
-        <v>0.43930072906454071</v>
+        <v>0.057450482268816785</v>
       </c>
       <c r="I125">
-        <v>0.43506123820517134</v>
+        <v>0.072165820096017158</v>
       </c>
       <c r="J125">
-        <v>0.42404049457975279</v>
+        <v>0.079797248809771126</v>
       </c>
       <c r="K125">
-        <v>0.381387171647877</v>
+        <v>0.083108640498754743</v>
       </c>
       <c r="L125">
-        <v>0.30029238359405686</v>
+        <v>0.087660987438623938</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.39520666340716704</v>
+        <v>1.0157727648549548</v>
       </c>
       <c r="B126">
-        <v>0.56069927093545924</v>
+        <v>0.94254951773118323</v>
       </c>
       <c r="C126">
-        <v>0.5649387617948286</v>
+        <v>0.92783417990398276</v>
       </c>
       <c r="D126">
-        <v>0.57595950542024721</v>
+        <v>0.92020275119022876</v>
       </c>
       <c r="E126">
-        <v>0.61861282835212306</v>
+        <v>0.91689135950124523</v>
       </c>
       <c r="F126">
-        <v>0.69970761640594314</v>
+        <v>0.91233901256137617</v>
       </c>
       <c r="G126">
-        <v>1.105820627757935</v>
+        <v>0.18336894063196413</v>
       </c>
       <c r="H126">
-        <v>0.60809466771840204</v>
+        <v>0.088948495687059134</v>
       </c>
       <c r="I126">
-        <v>0.57435714717909236</v>
+        <v>0.10173771723017735</v>
       </c>
       <c r="J126">
-        <v>0.58915736547121422</v>
+        <v>0.12357925585672799</v>
       </c>
       <c r="K126">
-        <v>0.60825374368269192</v>
+        <v>0.1535140871041529</v>
       </c>
       <c r="L126">
-        <v>0.6293747469066685</v>
+        <v>0.22055569514577256</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>500.3899245417893</v>
+        <v>465.04477591044258</v>
       </c>
       <c r="B127">
-        <v>345.59106148485705</v>
+        <v>1243.2838510170295</v>
       </c>
       <c r="C127">
-        <v>338.06976394980387</v>
+        <v>1382.1456188892648</v>
       </c>
       <c r="D127">
-        <v>533.34885063991862</v>
+        <v>2060.5836589768865</v>
       </c>
       <c r="E127">
-        <v>584.33826658972112</v>
+        <v>646.02479766303452</v>
       </c>
       <c r="F127">
-        <v>197.18427628888332</v>
+        <v>183.27670008421495</v>
       </c>
       <c r="G127">
-        <v>500.38992454178907</v>
+        <v>465.04477591044463</v>
       </c>
       <c r="H127">
-        <v>345.59106148485665</v>
+        <v>1243.2838510170795</v>
       </c>
       <c r="I127">
-        <v>338.06976394980359</v>
+        <v>1382.1456188892089</v>
       </c>
       <c r="J127">
-        <v>533.34885063991976</v>
+        <v>2060.5836589768487</v>
       </c>
       <c r="K127">
-        <v>584.33826658972123</v>
+        <v>646.02479766302849</v>
       </c>
       <c r="L127">
-        <v>197.18427628888361</v>
+        <v>183.27670008421563</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9647161226872429</v>
+        <v>1.9650782283557806</v>
       </c>
       <c r="B128">
-        <v>1.9668520672980649</v>
+        <v>1.9618738807227494</v>
       </c>
       <c r="C128">
-        <v>1.9670058520844753</v>
+        <v>1.9616818315238624</v>
       </c>
       <c r="D128">
-        <v>1.9644218028211857</v>
+        <v>1.9611159113637697</v>
       </c>
       <c r="E128">
-        <v>1.9640320203118362</v>
+        <v>1.9636428624933668</v>
       </c>
       <c r="F128">
-        <v>1.9720676432686499</v>
+        <v>1.9729920878456582</v>
       </c>
       <c r="G128">
-        <v>1.9647161226872465</v>
+        <v>1.9650782283557806</v>
       </c>
       <c r="H128">
-        <v>1.9668520672980649</v>
+        <v>1.9618738807227494</v>
       </c>
       <c r="I128">
-        <v>1.9670058520844753</v>
+        <v>1.9616818315238624</v>
       </c>
       <c r="J128">
-        <v>1.9644218028211857</v>
+        <v>1.9611159113637697</v>
       </c>
       <c r="K128">
-        <v>1.9640320203118362</v>
+        <v>1.9636428624933668</v>
       </c>
       <c r="L128">
-        <v>1.9720676432686499</v>
+        <v>1.9729920878456582</v>
       </c>
     </row>
     <row r="129">
@@ -2720,306 +2720,306 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.8553069821753837</v>
+        <v>0.97770270842715079</v>
       </c>
       <c r="B131">
-        <v>0.55972382751337135</v>
+        <v>0.93059233786730589</v>
       </c>
       <c r="C131">
-        <v>0.52832121021607181</v>
+        <v>0.92107710834027112</v>
       </c>
       <c r="D131">
-        <v>0.57207558402759262</v>
+        <v>0.91182748146336101</v>
       </c>
       <c r="E131">
-        <v>0.54321363560786984</v>
+        <v>0.89345221921272377</v>
       </c>
       <c r="F131">
-        <v>0.56942317956038213</v>
+        <v>0.85285129520371117</v>
       </c>
       <c r="G131">
-        <v>0.14469301782461616</v>
+        <v>0.022297291572849237</v>
       </c>
       <c r="H131">
-        <v>0.44027617248662859</v>
+        <v>0.069407662132694017</v>
       </c>
       <c r="I131">
-        <v>0.47167878978392819</v>
+        <v>0.078922891659728781</v>
       </c>
       <c r="J131">
-        <v>0.42792441597240743</v>
+        <v>0.088172518536639016</v>
       </c>
       <c r="K131">
-        <v>0.45678636439213011</v>
+        <v>0.10654778078727614</v>
       </c>
       <c r="L131">
-        <v>0.43057682043961787</v>
+        <v>0.14714870479628894</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.12750628077501114</v>
+        <v>0.018395927012039438</v>
       </c>
       <c r="B132">
-        <v>0.041329029419661323</v>
+        <v>0.0076161495720158054</v>
       </c>
       <c r="C132">
-        <v>0.034610026470819698</v>
+        <v>0.0072908916418704664</v>
       </c>
       <c r="D132">
-        <v>0.040331867076034013</v>
+        <v>0.010588594279950313</v>
       </c>
       <c r="E132">
-        <v>0.05727248365291078</v>
+        <v>0.01791266507743294</v>
       </c>
       <c r="F132">
-        <v>0.082715998796685258</v>
+        <v>0.032780338571487405</v>
       </c>
       <c r="G132">
-        <v>0.12750628077501114</v>
+        <v>0.018395927012039442</v>
       </c>
       <c r="H132">
-        <v>0.04132902941966133</v>
+        <v>0.0076161495720158054</v>
       </c>
       <c r="I132">
-        <v>0.034610026470819698</v>
+        <v>0.0072908916418704638</v>
       </c>
       <c r="J132">
-        <v>0.040331867076034013</v>
+        <v>0.010588594279950304</v>
       </c>
       <c r="K132">
-        <v>0.057272483652910773</v>
+        <v>0.01791266507743295</v>
       </c>
       <c r="L132">
-        <v>0.082715998796685244</v>
+        <v>0.032780338571487398</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>6.7079596156098376</v>
+        <v>53.147781451148475</v>
       </c>
       <c r="B133">
-        <v>13.543115707602265</v>
+        <v>122.18672034575094</v>
       </c>
       <c r="C133">
-        <v>15.26497561801949</v>
+        <v>126.33257406414701</v>
       </c>
       <c r="D133">
-        <v>14.184207811384244</v>
+        <v>86.114120284117618</v>
       </c>
       <c r="E133">
-        <v>9.4847228714562988</v>
+        <v>49.878240638704789</v>
       </c>
       <c r="F133">
-        <v>6.8840754853243826</v>
+        <v>26.017159442810879</v>
       </c>
       <c r="G133">
-        <v>1.1347912976924766</v>
+        <v>1.2120776277409939</v>
       </c>
       <c r="H133">
-        <v>10.652952142088713</v>
+        <v>9.1132220390891732</v>
       </c>
       <c r="I133">
-        <v>13.628385698624315</v>
+        <v>10.824861421130828</v>
       </c>
       <c r="J133">
-        <v>10.61008197725338</v>
+        <v>8.3271222038977619</v>
       </c>
       <c r="K133">
-        <v>7.9756688597686605</v>
+        <v>5.9481813748367935</v>
       </c>
       <c r="L133">
-        <v>5.2054841470024389</v>
+        <v>4.4889318173266233</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>5.3508182710749851e-11</v>
+        <v>3.4506044833945062e-111</v>
       </c>
       <c r="B134">
-        <v>3.0404341923695453e-34</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>3.5920881926167919e-43</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>3.997500869712898e-40</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>4.9257457447503446e-20</v>
+        <v>3.0423868636904776e-202</v>
       </c>
       <c r="F134">
-        <v>6.3843869192807878e-11</v>
+        <v>3.8173588636422833e-72</v>
       </c>
       <c r="G134">
-        <v>0.25700606509392832</v>
+        <v>0.22708820351806902</v>
       </c>
       <c r="H134">
-        <v>2.6510548139197788e-23</v>
+        <v>2.0365852441694076e-19</v>
       </c>
       <c r="I134">
-        <v>5.5165176766881325e-36</v>
+        <v>2.7221781224493376e-26</v>
       </c>
       <c r="J134">
-        <v>2.042131991113134e-24</v>
+        <v>2.359711057024734e-16</v>
       </c>
       <c r="K134">
-        <v>7.1904823649045427e-15</v>
+        <v>4.9298502620896719e-09</v>
       </c>
       <c r="L134">
-        <v>4.5381793134650369e-07</v>
+        <v>1.1067296328797051e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.60479333659283241</v>
+        <v>0.94140067475273848</v>
       </c>
       <c r="B135">
-        <v>0.47845572451949125</v>
+        <v>0.91565510117589022</v>
       </c>
       <c r="C135">
-        <v>0.46031533699952876</v>
+        <v>0.90677499171629461</v>
       </c>
       <c r="D135">
-        <v>0.49288352090293508</v>
+        <v>0.89105207158179511</v>
       </c>
       <c r="E135">
-        <v>0.43074496565296699</v>
+        <v>0.85826361633100046</v>
       </c>
       <c r="F135">
-        <v>0.40637821483303005</v>
+        <v>0.78828091145370127</v>
       </c>
       <c r="G135">
-        <v>-0.10582062775793469</v>
+        <v>-0.014004742101563085</v>
       </c>
       <c r="H135">
-        <v>0.35900806949274849</v>
+        <v>0.054470425441278308</v>
       </c>
       <c r="I135">
-        <v>0.40367291656738513</v>
+        <v>0.064620775035752268</v>
       </c>
       <c r="J135">
-        <v>0.34873235284774989</v>
+        <v>0.06739710865507309</v>
       </c>
       <c r="K135">
-        <v>0.34431769443722726</v>
+        <v>0.071359177905552795</v>
       </c>
       <c r="L135">
-        <v>0.26753185571226579</v>
+        <v>0.082578321046279116</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.105820627757935</v>
+        <v>1.0140047421015632</v>
       </c>
       <c r="B136">
-        <v>0.64099193050725145</v>
+        <v>0.94552957455872155</v>
       </c>
       <c r="C136">
-        <v>0.59632708343261487</v>
+        <v>0.93537922496424764</v>
       </c>
       <c r="D136">
-        <v>0.65126764715225016</v>
+        <v>0.93260289134492691</v>
       </c>
       <c r="E136">
-        <v>0.65568230556277274</v>
+        <v>0.92864082209444709</v>
       </c>
       <c r="F136">
-        <v>0.73246814428773421</v>
+        <v>0.91742167895372106</v>
       </c>
       <c r="G136">
-        <v>0.39520666340716704</v>
+        <v>0.058599325247261559</v>
       </c>
       <c r="H136">
-        <v>0.52154427548050875</v>
+        <v>0.084344898824109726</v>
       </c>
       <c r="I136">
-        <v>0.53968466300047124</v>
+        <v>0.093225008283705293</v>
       </c>
       <c r="J136">
-        <v>0.50711647909706492</v>
+        <v>0.10894792841820494</v>
       </c>
       <c r="K136">
-        <v>0.56925503434703295</v>
+        <v>0.14173638366899949</v>
       </c>
       <c r="L136">
-        <v>0.59362178516696995</v>
+        <v>0.21171908854629878</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>500.38992454178907</v>
+        <v>178.09828322905187</v>
       </c>
       <c r="B137">
-        <v>371.59294943465505</v>
+        <v>1834.0040890544651</v>
       </c>
       <c r="C137">
-        <v>480.02158482546554</v>
+        <v>1415.2306876312725</v>
       </c>
       <c r="D137">
-        <v>670.00412764967484</v>
+        <v>1135.4129052022922</v>
       </c>
       <c r="E137">
-        <v>628.26819367591838</v>
+        <v>529.55699198242644</v>
       </c>
       <c r="F137">
-        <v>213.41805498718378</v>
+        <v>242.61550360059061</v>
       </c>
       <c r="G137">
-        <v>500.3899245417893</v>
+        <v>178.09828322905145</v>
       </c>
       <c r="H137">
-        <v>371.59294943465426</v>
+        <v>1834.0040890544651</v>
       </c>
       <c r="I137">
-        <v>480.0215848254656</v>
+        <v>1415.2306876312925</v>
       </c>
       <c r="J137">
-        <v>670.00412764967484</v>
+        <v>1135.4129052023245</v>
       </c>
       <c r="K137">
-        <v>628.2681936759185</v>
+        <v>529.55699198241905</v>
       </c>
       <c r="L137">
-        <v>213.41805498718409</v>
+        <v>242.61550360059186</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9647161226872465</v>
+        <v>1.9733734348181533</v>
       </c>
       <c r="B138">
-        <v>1.9663685340555976</v>
+        <v>1.961258316971602</v>
       </c>
       <c r="C138">
-        <v>1.9649182664994491</v>
+        <v>1.9616416381559794</v>
       </c>
       <c r="D138">
-        <v>1.9635109620728421</v>
+        <v>1.9620555224128804</v>
       </c>
       <c r="E138">
-        <v>1.9637470349024546</v>
+        <v>1.9644537945420117</v>
       </c>
       <c r="F138">
-        <v>1.971141823821946</v>
+        <v>1.9697900193798994</v>
       </c>
       <c r="G138">
-        <v>1.9647161226872429</v>
+        <v>1.9733734348181533</v>
       </c>
       <c r="H138">
-        <v>1.9663685340555976</v>
+        <v>1.961258316971602</v>
       </c>
       <c r="I138">
-        <v>1.9649182664994491</v>
+        <v>1.9616416381559794</v>
       </c>
       <c r="J138">
-        <v>1.9635109620728421</v>
+        <v>1.9620555224128804</v>
       </c>
       <c r="K138">
-        <v>1.9637470349024546</v>
+        <v>1.9644537945420117</v>
       </c>
       <c r="L138">
-        <v>1.971141823821946</v>
+        <v>1.9697900193798994</v>
       </c>
     </row>
     <row r="139">
@@ -3062,292 +3062,286 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>0.96397387087810016</v>
+        <v>0.99551917614048724</v>
       </c>
       <c r="C141">
-        <v>0.97638798247606018</v>
+        <v>0.99566843731200705</v>
       </c>
       <c r="D141">
-        <v>0.934523345997891</v>
+        <v>0.98705145940065742</v>
       </c>
       <c r="E141">
-        <v>0.95160682205741465</v>
+        <v>0.98805775968791332</v>
       </c>
       <c r="F141">
-        <v>0.89541038568998044</v>
+        <v>0.96812755220429469</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.036026129121899862</v>
+        <v>0.0044808238595127059</v>
       </c>
       <c r="I141">
-        <v>0.023612017523939842</v>
+        <v>0.0043315626879929193</v>
       </c>
       <c r="J141">
-        <v>0.065476654002109017</v>
+        <v>0.012948540599342686</v>
       </c>
       <c r="K141">
-        <v>0.048393177942585346</v>
+        <v>0.01194224031208669</v>
       </c>
       <c r="L141">
-        <v>0.10458961431001948</v>
+        <v>0.031872447795705354</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.3994487347615761e-16</v>
+        <v>0</v>
       </c>
       <c r="B142">
-        <v>0.016955748811109582</v>
+        <v>0.0020551960322780223</v>
       </c>
       <c r="C142">
-        <v>0.010628761812695781</v>
+        <v>0.0018372847637623875</v>
       </c>
       <c r="D142">
-        <v>0.021179951365462014</v>
+        <v>0.0043239833966593148</v>
       </c>
       <c r="E142">
-        <v>0.026836509949502294</v>
+        <v>0.0066301738018664938</v>
       </c>
       <c r="F142">
-        <v>0.049265833254958674</v>
+        <v>0.01492175360958419</v>
       </c>
       <c r="G142"/>
       <c r="H142">
-        <v>0.016955748811109582</v>
+        <v>0.0020551960322780258</v>
       </c>
       <c r="I142">
-        <v>0.010628761812695779</v>
+        <v>0.0018372847637623828</v>
       </c>
       <c r="J142">
-        <v>0.021179951365462007</v>
+        <v>0.0043239833966593226</v>
       </c>
       <c r="K142">
-        <v>0.026836509949502305</v>
+        <v>0.0066301738018664964</v>
       </c>
       <c r="L142">
-        <v>0.049265833254958674</v>
+        <v>0.01492175360958419</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143">
-        <v>7145670828523559</v>
-      </c>
+      <c r="A143"/>
       <c r="B143">
-        <v>56.852332599224077</v>
+        <v>484.39134783509337</v>
       </c>
       <c r="C143">
-        <v>91.862815225550548</v>
+        <v>541.92385249692029</v>
       </c>
       <c r="D143">
-        <v>44.12301661475064</v>
+        <v>228.27364697173624</v>
       </c>
       <c r="E143">
-        <v>35.459410476549799</v>
+        <v>149.02441311715845</v>
       </c>
       <c r="F143">
-        <v>18.175078477940005</v>
+        <v>64.880279994870691</v>
       </c>
       <c r="G143"/>
       <c r="H143">
-        <v>2.1247147220236697</v>
+        <v>2.1802415872446286</v>
       </c>
       <c r="I143">
-        <v>2.2215209955816211</v>
+        <v>2.3575891845544761</v>
       </c>
       <c r="J143">
-        <v>3.0914449647359117</v>
+        <v>2.9945861053367211</v>
       </c>
       <c r="K143">
-        <v>1.803258994319521</v>
+        <v>1.801195665296853</v>
       </c>
       <c r="L143">
-        <v>2.122964484711976</v>
+        <v>2.1359719929455068</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144">
-        <v>0</v>
-      </c>
+      <c r="A144"/>
       <c r="B144">
-        <v>1.9585343895652572e-231</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>1.6030742505604108e-185</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>8.7775354947204677e-168</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>4.0772197776317908e-130</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>4.904496893482024e-52</v>
+        <v>0</v>
       </c>
       <c r="G144"/>
       <c r="H144">
-        <v>0.034059248082232332</v>
+        <v>0.029598508161489321</v>
       </c>
       <c r="I144">
-        <v>0.027273627531631976</v>
+        <v>0.018706063086083701</v>
       </c>
       <c r="J144">
-        <v>0.0021122754151891958</v>
+        <v>0.002801486616722674</v>
       </c>
       <c r="K144">
-        <v>0.072042837710764487</v>
+        <v>0.072029220259886659</v>
       </c>
       <c r="L144">
-        <v>0.034480002512145828</v>
+        <v>0.032748038153829491</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="A145"/>
       <c r="B145">
-        <v>0.93066734306232335</v>
+        <v>0.99148353112947551</v>
       </c>
       <c r="C145">
-        <v>0.95544764940398808</v>
+        <v>0.99206032963155488</v>
       </c>
       <c r="D145">
-        <v>0.89290237757255198</v>
+        <v>0.97856850673999052</v>
       </c>
       <c r="E145">
-        <v>0.89886074107671021</v>
+        <v>0.97504417769414864</v>
       </c>
       <c r="F145">
-        <v>0.79850566989466287</v>
+        <v>0.93887175233379205</v>
       </c>
       <c r="G145"/>
       <c r="H145">
-        <v>0.0027196013061230526</v>
+        <v>0.00044517884850099089</v>
       </c>
       <c r="I145">
-        <v>0.0026716844518676966</v>
+        <v>0.00072345500754079136</v>
       </c>
       <c r="J145">
-        <v>0.023855685576770015</v>
+        <v>0.004465587938675802</v>
       </c>
       <c r="K145">
-        <v>-0.0043529030381190686</v>
+        <v>-0.0010713416816779398</v>
       </c>
       <c r="L145">
-        <v>0.0076848985147019017</v>
+        <v>0.0026166479252027128</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146">
-        <v>1</v>
-      </c>
+      <c r="A146"/>
       <c r="B146">
-        <v>0.99728039869387697</v>
+        <v>0.99955482115149896</v>
       </c>
       <c r="C146">
-        <v>0.99732831554813228</v>
+        <v>0.99927654499245921</v>
       </c>
       <c r="D146">
-        <v>0.97614431442323002</v>
+        <v>0.99553441206132431</v>
       </c>
       <c r="E146">
-        <v>1.0043529030381191</v>
+        <v>1.0010713416816779</v>
       </c>
       <c r="F146">
-        <v>0.992315101485298</v>
+        <v>0.99738335207479734</v>
       </c>
       <c r="G146"/>
       <c r="H146">
-        <v>0.069332656937676679</v>
+        <v>0.0085164688705244209</v>
       </c>
       <c r="I146">
-        <v>0.044552350596011987</v>
+        <v>0.0079396703684450481</v>
       </c>
       <c r="J146">
-        <v>0.10709762242744802</v>
+        <v>0.021431493260009572</v>
       </c>
       <c r="K146">
-        <v>0.10113925892328976</v>
+        <v>0.024955822305851319</v>
       </c>
       <c r="L146">
-        <v>0.20149433010533707</v>
+        <v>0.061128247666207995</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147"/>
+      <c r="A147">
+        <v>3886.0015420200461</v>
+      </c>
       <c r="B147">
-        <v>545.70238297525941</v>
+        <v>648.25065563010457</v>
       </c>
       <c r="C147">
-        <v>233.91561389865277</v>
+        <v>615.43858633768684</v>
       </c>
       <c r="D147">
-        <v>462.0363169994406</v>
+        <v>1267.4215486942296</v>
       </c>
       <c r="E147">
-        <v>432.84091308731183</v>
+        <v>843.1840527903878</v>
       </c>
       <c r="F147">
-        <v>339.49988670087981</v>
+        <v>3650.4352763934126</v>
       </c>
       <c r="G147"/>
       <c r="H147">
-        <v>545.70238297525918</v>
+        <v>648.25065563007274</v>
       </c>
       <c r="I147">
-        <v>233.91561389865333</v>
+        <v>615.4385863377305</v>
       </c>
       <c r="J147">
-        <v>462.03631699944225</v>
+        <v>1267.4215486941412</v>
       </c>
       <c r="K147">
-        <v>432.84091308730945</v>
+        <v>843.1840527903779</v>
       </c>
       <c r="L147">
-        <v>339.49988670087993</v>
+        <v>3650.4352763934116</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9599639845400538</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B148">
-        <v>1.9643206670975233</v>
+        <v>1.9636302073522958</v>
       </c>
       <c r="C148">
-        <v>1.9701573373353294</v>
+        <v>1.963826050058491</v>
       </c>
       <c r="D148">
-        <v>1.9651116146191918</v>
+        <v>1.9618374731088815</v>
       </c>
       <c r="E148">
-        <v>1.9654597814676946</v>
+        <v>1.9627814266499477</v>
       </c>
       <c r="F148">
-        <v>1.9669760844969366</v>
+        <v>1.9606140562267256</v>
       </c>
       <c r="G148">
         <v>1.9599639845400538</v>
       </c>
       <c r="H148">
-        <v>1.9643206670975233</v>
+        <v>1.9636302073522958</v>
       </c>
       <c r="I148">
-        <v>1.9701573373353294</v>
+        <v>1.963826050058491</v>
       </c>
       <c r="J148">
-        <v>1.9651116146191918</v>
+        <v>1.9618374731088815</v>
       </c>
       <c r="K148">
-        <v>1.9654597814676946</v>
+        <v>1.9627814266499477</v>
       </c>
       <c r="L148">
-        <v>1.9669760844969366</v>
+        <v>1.9606140562267256</v>
       </c>
     </row>
     <row r="149">
@@ -3390,114 +3384,114 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.48268662108020327</v>
+        <v>0.92874983415069767</v>
       </c>
       <c r="B151">
-        <v>0.49732049955999813</v>
+        <v>0.89053374722786816</v>
       </c>
       <c r="C151">
-        <v>0.51731337891979678</v>
+        <v>0.071250165849302299</v>
       </c>
       <c r="D151">
-        <v>0.50267950044000187</v>
+        <v>0.10946625277213182</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.035658571827136006</v>
+        <v>0.0063538236595362049</v>
       </c>
       <c r="B152">
-        <v>0.024364789752441295</v>
+        <v>0.0068860586500719898</v>
       </c>
       <c r="C152">
-        <v>0.035658571827136006</v>
+        <v>0.0063538236595361954</v>
       </c>
       <c r="D152">
-        <v>0.024364789752441298</v>
+        <v>0.0068860586500719863</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>13.536341932597566</v>
+        <v>146.17179889101479</v>
       </c>
       <c r="B153">
-        <v>20.411442274406156</v>
+        <v>129.32415950575125</v>
       </c>
       <c r="C153">
-        <v>14.50740600121634</v>
+        <v>11.213746189251857</v>
       </c>
       <c r="D153">
-        <v>20.631390853255137</v>
+        <v>15.896793555626695</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>4.7240000395728326e-34</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>1.6687284352358065e-68</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>6.7110493426551693e-38</v>
+        <v>4.4022630009858381e-28</v>
       </c>
       <c r="D154">
-        <v>1.365407481826824e-69</v>
+        <v>1.3664815222560156e-54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.41256214831428589</v>
+        <v>0.91628652200718819</v>
       </c>
       <c r="B155">
-        <v>0.44945532097064972</v>
+        <v>0.87703159883546356</v>
       </c>
       <c r="C155">
-        <v>0.44718890615387941</v>
+        <v>0.058786853705792862</v>
       </c>
       <c r="D155">
-        <v>0.45481432185065346</v>
+        <v>0.095964104379727258</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.55281109384612059</v>
+        <v>0.94121314629420716</v>
       </c>
       <c r="B156">
-        <v>0.5451856781493466</v>
+        <v>0.90403589562027276</v>
       </c>
       <c r="C156">
-        <v>0.58743785168571416</v>
+        <v>0.08371347799281173</v>
       </c>
       <c r="D156">
-        <v>0.55054467902935034</v>
+        <v>0.12296840116453638</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>361.2210087844702</v>
+        <v>1501.4964339023104</v>
       </c>
       <c r="B157">
-        <v>521.58920112537419</v>
+        <v>2856.3433955856658</v>
       </c>
       <c r="C157">
-        <v>361.22100878446952</v>
+        <v>1501.4964339023902</v>
       </c>
       <c r="D157">
-        <v>521.58920112537328</v>
+        <v>2856.3433955857286</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9665530382389844</v>
+        <v>1.9615451752117419</v>
       </c>
       <c r="B158">
-        <v>1.9645225374683335</v>
+        <v>1.9607948579211436</v>
       </c>
       <c r="C158">
-        <v>1.9665530382389844</v>
+        <v>1.9615451752117419</v>
       </c>
       <c r="D158">
-        <v>1.9645225374683335</v>
+        <v>1.9607948579211436</v>
       </c>
     </row>
     <row r="159">
@@ -3516,114 +3510,114 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.55613061277634268</v>
+        <v>0.93689351454428937</v>
       </c>
       <c r="B161">
-        <v>0.55144530967893068</v>
+        <v>0.90197401386326048</v>
       </c>
       <c r="C161">
-        <v>0.44386938722365732</v>
+        <v>0.063106485455710695</v>
       </c>
       <c r="D161">
-        <v>0.44855469032106932</v>
+        <v>0.098025986136739504</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.035196894060910471</v>
+        <v>0.0060643640236166018</v>
       </c>
       <c r="B162">
-        <v>0.024025036283212085</v>
+        <v>0.006519813895659865</v>
       </c>
       <c r="C162">
-        <v>0.035196894060910471</v>
+        <v>0.0060643640236165992</v>
       </c>
       <c r="D162">
-        <v>0.024025036283212085</v>
+        <v>0.0065198138956598624</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>15.80055932815899</v>
+        <v>154.49163521446303</v>
       </c>
       <c r="B163">
-        <v>22.952943886468248</v>
+        <v>138.34352150200024</v>
       </c>
       <c r="C163">
-        <v>12.611038532420304</v>
+        <v>10.406117642337033</v>
       </c>
       <c r="D163">
-        <v>18.670302306036671</v>
+        <v>15.035089606160977</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>5.8573408146563585e-44</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>2.7474136619186211e-82</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>6.8831876648002083e-31</v>
+        <v>3.4124549127561807e-24</v>
       </c>
       <c r="D164">
-        <v>1.2719386160520377e-60</v>
+        <v>6.999018894832722e-49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.48693455297811566</v>
+        <v>0.92499373217311565</v>
       </c>
       <c r="B165">
-        <v>0.50425328006331294</v>
+        <v>0.88918892370154512</v>
       </c>
       <c r="C165">
-        <v>0.3746733274254303</v>
+        <v>0.051206703084536946</v>
       </c>
       <c r="D165">
-        <v>0.40136266070545151</v>
+        <v>0.085240895975024128</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.62532667257456964</v>
+        <v>0.9487932969154631</v>
       </c>
       <c r="B166">
-        <v>0.59863733929454843</v>
+        <v>0.91475910402497584</v>
       </c>
       <c r="C166">
-        <v>0.51306544702188428</v>
+        <v>0.075006267826884437</v>
       </c>
       <c r="D166">
-        <v>0.49574671993668712</v>
+        <v>0.11081107629845488</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>396.13040325821697</v>
+        <v>1040.1155144326842</v>
       </c>
       <c r="B167">
-        <v>550.13765072769343</v>
+        <v>2384.4540249259862</v>
       </c>
       <c r="C167">
-        <v>396.1304032582176</v>
+        <v>1040.1155144327006</v>
       </c>
       <c r="D167">
-        <v>550.13765072769354</v>
+        <v>2384.4540249260258</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9659706245238233</v>
+        <v>1.9622473724915157</v>
       </c>
       <c r="B168">
-        <v>1.9642854670148429</v>
+        <v>1.9609593718965224</v>
       </c>
       <c r="C168">
-        <v>1.9659706245238233</v>
+        <v>1.9622473724915157</v>
       </c>
       <c r="D168">
-        <v>1.9642854670148429</v>
+        <v>1.9609593718965224</v>
       </c>
     </row>
     <row r="169">
@@ -3642,114 +3636,114 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.9611827661434541</v>
+        <v>0.99488649463050705</v>
       </c>
       <c r="B171">
-        <v>0.9512341907610713</v>
+        <v>0.98938771838314865</v>
       </c>
       <c r="C171">
-        <v>0.038817233856545896</v>
+        <v>0.0051135053694929596</v>
       </c>
       <c r="D171">
-        <v>0.048765809238928766</v>
+        <v>0.01061228161685124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.013790977773216993</v>
+        <v>0.0017971250747387771</v>
       </c>
       <c r="B172">
-        <v>0.010747940216703953</v>
+        <v>0.0023440844836587972</v>
       </c>
       <c r="C172">
-        <v>0.013790977773217002</v>
+        <v>0.0017971250747387812</v>
       </c>
       <c r="D172">
-        <v>0.010747940216703951</v>
+        <v>0.0023440844836587955</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>69.696491572202788</v>
+        <v>553.59891674491257</v>
       </c>
       <c r="B173">
-        <v>88.503859491394181</v>
+        <v>422.0785237394042</v>
       </c>
       <c r="C173">
-        <v>2.8146832294901927</v>
+        <v>2.8453809038506832</v>
       </c>
       <c r="D173">
-        <v>4.5372237150276664</v>
+        <v>4.5272607241044991</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.2831284684857591e-244</v>
+        <v>0</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>0.005094784128581031</v>
+        <v>0.0044831803278332222</v>
       </c>
       <c r="D174">
-        <v>6.8804136143539097e-06</v>
+        <v>6.1723235605186409e-06</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.93408070024406264</v>
+        <v>0.99136195884491418</v>
       </c>
       <c r="B175">
-        <v>0.93012626501375506</v>
+        <v>0.98479182349023442</v>
       </c>
       <c r="C175">
-        <v>0.011715167957154469</v>
+        <v>0.0015889695839000411</v>
       </c>
       <c r="D175">
-        <v>0.027657883491612554</v>
+        <v>0.0060163867239370313</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.98828483204284556</v>
+        <v>0.99841103041609991</v>
       </c>
       <c r="B176">
-        <v>0.97234211650838753</v>
+        <v>0.99398361327606288</v>
       </c>
       <c r="C176">
-        <v>0.065919299755937327</v>
+        <v>0.0086380411550858772</v>
       </c>
       <c r="D176">
-        <v>0.069873734986244981</v>
+        <v>0.015208176509765449</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>454.02893365845182</v>
+        <v>1908.3820287206327</v>
       </c>
       <c r="B177">
-        <v>603.24402151076811</v>
+        <v>3534.7122517046651</v>
       </c>
       <c r="C177">
-        <v>454.02893365844744</v>
+        <v>1908.382028720453</v>
       </c>
       <c r="D177">
-        <v>603.24402151076913</v>
+        <v>3534.7122517047396</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9652026379177729</v>
+        <v>1.961207839752179</v>
       </c>
       <c r="B178">
-        <v>1.9639042757710219</v>
+        <v>1.9606353461035007</v>
       </c>
       <c r="C178">
-        <v>1.9652026379177729</v>
+        <v>1.961207839752179</v>
       </c>
       <c r="D178">
-        <v>1.9639042757710219</v>
+        <v>1.9606353461035007</v>
       </c>
     </row>
     <row r="179">
@@ -3768,114 +3762,114 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.34039507017543857</v>
+        <v>0.92495402532081406</v>
       </c>
       <c r="B181">
-        <v>0.51410148304925285</v>
+        <v>0.90747677809016092</v>
       </c>
       <c r="C181">
-        <v>0.65960492982456143</v>
+        <v>0.075045974679185876</v>
       </c>
       <c r="D181">
-        <v>0.48589851695074709</v>
+        <v>0.092523221909839068</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.10720482157758593</v>
+        <v>0.018971825537350617</v>
       </c>
       <c r="B182">
-        <v>0.020563321219253111</v>
+        <v>0.0050418502379445075</v>
       </c>
       <c r="C182">
-        <v>0.10720482157758594</v>
+        <v>0.018971825537350613</v>
       </c>
       <c r="D182">
-        <v>0.020563321219253111</v>
+        <v>0.0050418502379445057</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.175184335613944</v>
+        <v>48.754086605942</v>
       </c>
       <c r="B183">
-        <v>25.000897353483335</v>
+        <v>179.98884045792812</v>
       </c>
       <c r="C183">
-        <v>6.1527543268862601</v>
+        <v>3.9556538474086103</v>
       </c>
       <c r="D183">
-        <v>23.629379309399109</v>
+        <v>18.351045259836901</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.0015761279503560116</v>
+        <v>1.745185655472613e-147</v>
       </c>
       <c r="B184">
-        <v>6.2810770496410858e-99</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>1.4126383008575798e-09</v>
+        <v>9.4631160685359897e-05</v>
       </c>
       <c r="D184">
-        <v>4.3661281649041451e-91</v>
+        <v>3.4343293878864182e-72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.12984207923723312</v>
+        <v>0.88762430233468004</v>
       </c>
       <c r="B185">
-        <v>0.47372788586933406</v>
+        <v>0.89759184265288927</v>
       </c>
       <c r="C185">
-        <v>0.44905193888635597</v>
+        <v>0.037716251693051872</v>
       </c>
       <c r="D185">
-        <v>0.44552491977082831</v>
+        <v>0.082638286472567477</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.55094806111364403</v>
+        <v>0.96228374830694807</v>
       </c>
       <c r="B186">
-        <v>0.55447508022917158</v>
+        <v>0.91736171352743257</v>
       </c>
       <c r="C186">
-        <v>0.87015792076276688</v>
+        <v>0.11237569766531988</v>
       </c>
       <c r="D186">
-        <v>0.52627211413066588</v>
+        <v>0.10240815734711066</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>585.29103351623519</v>
+        <v>310.23812524457009</v>
       </c>
       <c r="B187">
-        <v>695.80747293316153</v>
+        <v>3871.2500949285836</v>
       </c>
       <c r="C187">
-        <v>585.29103351623507</v>
+        <v>310.23812524457099</v>
       </c>
       <c r="D187">
-        <v>695.80747293316153</v>
+        <v>3871.2500949285895</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.964025384677542</v>
+        <v>1.9676400097946001</v>
       </c>
       <c r="B188">
-        <v>1.9633792007352202</v>
+        <v>1.9605769649559344</v>
       </c>
       <c r="C188">
-        <v>1.964025384677542</v>
+        <v>1.9676400097946001</v>
       </c>
       <c r="D188">
-        <v>1.9633792007352202</v>
+        <v>1.9605769649559344</v>
       </c>
     </row>
     <row r="189">
@@ -3894,114 +3888,114 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.67096808771929828</v>
+        <v>0.96479762232129596</v>
       </c>
       <c r="B191">
-        <v>0.53537773763077934</v>
+        <v>0.91010403798860617</v>
       </c>
       <c r="C191">
-        <v>0.32903191228070172</v>
+        <v>0.035202377678704114</v>
       </c>
       <c r="D191">
-        <v>0.46462226236922072</v>
+        <v>0.089895962011393785</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.10693506885827654</v>
+        <v>0.013736356455096965</v>
       </c>
       <c r="B192">
-        <v>0.020449314584057951</v>
+        <v>0.0050140231552095261</v>
       </c>
       <c r="C192">
-        <v>0.10693506885827654</v>
+        <v>0.013736356455096969</v>
       </c>
       <c r="D192">
-        <v>0.020449314584057951</v>
+        <v>0.0050140231552095269</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>6.2745373887451965</v>
+        <v>70.236792811481052</v>
       </c>
       <c r="B193">
-        <v>26.180717961478944</v>
+        <v>181.51173415364389</v>
       </c>
       <c r="C193">
-        <v>3.0769317848083602</v>
+        <v>2.5627157968547061</v>
       </c>
       <c r="D193">
-        <v>22.720676551742955</v>
+        <v>17.92890842915088</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>6.8317800969427398e-10</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>1.0798984250742978e-105</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>0.0021893210063208069</v>
+        <v>0.010476241162412345</v>
       </c>
       <c r="D194">
-        <v>6.4693118564264025e-86</v>
+        <v>4.0364646860612202e-69</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.46094427681626549</v>
+        <v>0.93785453413864428</v>
       </c>
       <c r="B195">
-        <v>0.49522797910172611</v>
+        <v>0.9002736645720878</v>
       </c>
       <c r="C195">
-        <v>0.11900810137766896</v>
+        <v>0.0082592894960524417</v>
       </c>
       <c r="D195">
-        <v>0.42447250384016755</v>
+        <v>0.080065588594875364</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.88099189862233107</v>
+        <v>0.99174071050394763</v>
       </c>
       <c r="B196">
-        <v>0.57552749615983256</v>
+        <v>0.91993441140512455</v>
       </c>
       <c r="C196">
-        <v>0.53905572318373451</v>
+        <v>0.062145465861355789</v>
       </c>
       <c r="D196">
-        <v>0.50477202089827389</v>
+        <v>0.099726335427912205</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>584.45683185473877</v>
+        <v>1604.5136967998831</v>
       </c>
       <c r="B197">
-        <v>695.81139743302617</v>
+        <v>3877.4088431975269</v>
       </c>
       <c r="C197">
-        <v>584.45683185473877</v>
+        <v>1604.5136967998651</v>
       </c>
       <c r="D197">
-        <v>695.81139743302617</v>
+        <v>3877.4088431975242</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9640311933719523</v>
+        <v>1.9614435800880994</v>
       </c>
       <c r="B198">
-        <v>1.963379181439826</v>
+        <v>1.9605759910192571</v>
       </c>
       <c r="C198">
-        <v>1.9640311933719523</v>
+        <v>1.9614435800880994</v>
       </c>
       <c r="D198">
-        <v>1.963379181439826</v>
+        <v>1.9605759910192571</v>
       </c>
     </row>
     <row r="199">
@@ -4020,44 +4014,44 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.98863684210526315</v>
+        <v>0.99860916109740872</v>
       </c>
       <c r="B201">
-        <v>0.9505207793199677</v>
+        <v>0.99083937645074194</v>
       </c>
       <c r="C201">
-        <v>0.011363157894736842</v>
+        <v>0.00139083890259132</v>
       </c>
       <c r="D201">
-        <v>0.049479220680032257</v>
+        <v>0.0091606235492580103</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.011212645846738648</v>
+        <v>0.0013883131208183306</v>
       </c>
       <c r="B202">
-        <v>0.0093355796561554686</v>
+        <v>0.001746147690534824</v>
       </c>
       <c r="C202">
-        <v>0.011212645846738648</v>
+        <v>0.0013883131208183308</v>
       </c>
       <c r="D202">
-        <v>0.0093355796561554686</v>
+        <v>0.001746147690534824</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>88.171592648029787</v>
+        <v>719.2967826370367</v>
       </c>
       <c r="B203">
-        <v>101.81700701286785</v>
+        <v>567.44305296836592</v>
       </c>
       <c r="C203">
-        <v>1.0134234194190637</v>
+        <v>1.0018193170799252</v>
       </c>
       <c r="D203">
-        <v>5.3000694656820633</v>
+        <v>5.2461905707713772</v>
       </c>
     </row>
     <row r="204">
@@ -4068,66 +4062,66 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>0.31121011974873597</v>
+        <v>0.31649324393158268</v>
       </c>
       <c r="D204">
-        <v>1.5556198619486576e-07</v>
+        <v>1.6356158088599821e-07</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.9666221775470365</v>
+        <v>0.99588726958128904</v>
       </c>
       <c r="B205">
-        <v>0.93219150546858165</v>
+        <v>0.98741592354612195</v>
       </c>
       <c r="C205">
-        <v>-0.010651506663489841</v>
+        <v>-0.0013310526135283424</v>
       </c>
       <c r="D205">
-        <v>0.031149946828646233</v>
+        <v>0.0057371706446380389</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.0106515066634898</v>
+        <v>1.0013310526135284</v>
       </c>
       <c r="B206">
-        <v>0.96885005317135375</v>
+        <v>0.99426282935536192</v>
       </c>
       <c r="C206">
-        <v>0.033377822452963529</v>
+        <v>0.0041127304187109828</v>
       </c>
       <c r="D206">
-        <v>0.067808494531418281</v>
+        <v>0.012584076453877982</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>696.00855920114122</v>
+        <v>3885.8972679827657</v>
       </c>
       <c r="B207">
-        <v>696.00518298116674</v>
+        <v>3885.8940433181951</v>
       </c>
       <c r="C207">
-        <v>696.00855920114122</v>
+        <v>3885.8972679827648</v>
       </c>
       <c r="D207">
-        <v>696.00518298116674</v>
+        <v>3885.8940433181961</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9633782123449437</v>
+        <v>1.9605746537317632</v>
       </c>
       <c r="B208">
-        <v>1.9633782289352018</v>
+        <v>1.9605746542386742</v>
       </c>
       <c r="C208">
-        <v>1.9633782123449437</v>
+        <v>1.9605746537317632</v>
       </c>
       <c r="D208">
-        <v>1.9633782289352018</v>
+        <v>1.9605746542386742</v>
       </c>
     </row>
     <row r="209">
@@ -4146,114 +4140,162 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.4823533881385681</v>
+        <v>0.88548501017391901</v>
       </c>
       <c r="B211">
-        <v>0.57527263054810329</v>
+        <v>0.90858020193915934</v>
       </c>
       <c r="C211">
-        <v>0.5176466118614319</v>
+        <v>0.92219878536880873</v>
       </c>
       <c r="D211">
-        <v>0.42472736945189676</v>
+        <v>0.11451498982608097</v>
+      </c>
+      <c r="E211">
+        <v>0.091419798060840704</v>
+      </c>
+      <c r="F211">
+        <v>0.07780121463119119</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.020945066198859458</v>
+        <v>0.0096397932681876221</v>
       </c>
       <c r="B212">
-        <v>0.054559991091763044</v>
+        <v>0.013266514431829336</v>
       </c>
       <c r="C212">
-        <v>0.020945066198859462</v>
+        <v>0.0059568580430354075</v>
       </c>
       <c r="D212">
-        <v>0.054559991091763044</v>
+        <v>0.0096397932681876134</v>
+      </c>
+      <c r="E212">
+        <v>0.013266514431829329</v>
+      </c>
+      <c r="F212">
+        <v>0.0059568580430354075</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>23.029451592988242</v>
+        <v>91.857261409963726</v>
       </c>
       <c r="B213">
-        <v>10.543854920734262</v>
+        <v>68.486730754181536</v>
       </c>
       <c r="C213">
-        <v>24.714489175957809</v>
+        <v>154.81295318880694</v>
       </c>
       <c r="D213">
-        <v>7.7845938196279896</v>
+        <v>11.879403078486458</v>
+      </c>
+      <c r="E213">
+        <v>6.8910186266789264</v>
+      </c>
+      <c r="F213">
+        <v>13.060780376016213</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1.9287034388701147e-87</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>9.0859496115665733e-24</v>
+        <v>4.4640359328232352e-138</v>
       </c>
       <c r="C214">
-        <v>5.1914634327976147e-97</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>3.5741129631585731e-14</v>
+        <v>1.4111176066166999e-30</v>
+      </c>
+      <c r="E214">
+        <v>7.5162432828576309e-11</v>
+      </c>
+      <c r="F214">
+        <v>1.7095167358338008e-37</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.44122947351312786</v>
+        <v>0.86656893293936976</v>
       </c>
       <c r="B215">
-        <v>0.46809747206640995</v>
+        <v>0.88241546031078866</v>
       </c>
       <c r="C215">
-        <v>0.47652269723599167</v>
+        <v>0.91051659539793528</v>
       </c>
       <c r="D215">
-        <v>0.31755221097020342</v>
+        <v>0.095598912591531776</v>
+      </c>
+      <c r="E215">
+        <v>0.065255056432470038</v>
+      </c>
+      <c r="F215">
+        <v>0.066119024660317716</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.52347730276400828</v>
+        <v>0.90440108740846825</v>
       </c>
       <c r="B216">
-        <v>0.68244778902979664</v>
+        <v>0.93474494356753002</v>
       </c>
       <c r="C216">
-        <v>0.55877052648687209</v>
+        <v>0.93388097533968217</v>
       </c>
       <c r="D216">
-        <v>0.53190252793359005</v>
+        <v>0.13343106706063015</v>
+      </c>
+      <c r="E216">
+        <v>0.11758453968921137</v>
+      </c>
+      <c r="F216">
+        <v>0.089483404602064665</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>688.05565480957841</v>
+        <v>1020.7436852337282</v>
       </c>
       <c r="B217">
-        <v>541.51890494686279</v>
+        <v>194.4428776635032</v>
       </c>
       <c r="C217">
-        <v>688.05565480957819</v>
+        <v>2030.745770198643</v>
       </c>
       <c r="D217">
-        <v>541.51890494686279</v>
+        <v>1020.743685233758</v>
+      </c>
+      <c r="E217">
+        <v>194.44287766350473</v>
+      </c>
+      <c r="F217">
+        <v>2030.7457701986314</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9634177440642124</v>
+        <v>1.9622907575180408</v>
       </c>
       <c r="B218">
-        <v>1.964354398471917</v>
+        <v>1.9722393370782922</v>
       </c>
       <c r="C218">
-        <v>1.9634177440642124</v>
+        <v>1.9611328466240638</v>
       </c>
       <c r="D218">
-        <v>1.964354398471917</v>
+        <v>1.9622907575180408</v>
+      </c>
+      <c r="E218">
+        <v>1.9722393370782922</v>
+      </c>
+      <c r="F218">
+        <v>1.9611328466240638</v>
       </c>
     </row>
     <row r="219">
@@ -4269,117 +4311,171 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.56895030535966984</v>
+        <v>0.92971389669778903</v>
       </c>
       <c r="B221">
-        <v>0.43821529940536513</v>
+        <v>0.91090741436001665</v>
       </c>
       <c r="C221">
-        <v>0.43104969464033011</v>
+        <v>0.9113630321761258</v>
       </c>
       <c r="D221">
-        <v>0.56178470059463481</v>
+        <v>0.070286103302211064</v>
+      </c>
+      <c r="E221">
+        <v>0.089092585639983471</v>
+      </c>
+      <c r="F221">
+        <v>0.088636967823874147</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.020674395236031116</v>
+        <v>0.0076972647012616899</v>
       </c>
       <c r="B222">
-        <v>0.054853102786230713</v>
+        <v>0.012053626875407761</v>
       </c>
       <c r="C222">
-        <v>0.020674395236031113</v>
+        <v>0.0062259941245232792</v>
       </c>
       <c r="D222">
-        <v>0.054853102786230713</v>
+        <v>0.0076972647012616933</v>
+      </c>
+      <c r="E222">
+        <v>0.012053626875407765</v>
+      </c>
+      <c r="F222">
+        <v>0.0062259941245232809</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>27.51956218618232</v>
+        <v>120.78497138670518</v>
       </c>
       <c r="B223">
-        <v>7.9888880873912278</v>
+        <v>75.571230450021844</v>
       </c>
       <c r="C223">
-        <v>20.849446366832598</v>
+        <v>146.38032319792919</v>
       </c>
       <c r="D223">
-        <v>10.241621203890304</v>
+        <v>9.1313091117537049</v>
+      </c>
+      <c r="E223">
+        <v>7.3913508822604514</v>
+      </c>
+      <c r="F223">
+        <v>14.236596766891585</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>5.1072361321757823e-113</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>8.2740336928676137e-15</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>3.3109046220134968e-75</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>1.2903032965922111e-22</v>
+        <v>1.5622693285468018e-19</v>
+      </c>
+      <c r="E224">
+        <v>1.8450167684623797e-13</v>
+      </c>
+      <c r="F224">
+        <v>2.6292508079251827e-44</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.52835786166529197</v>
+        <v>0.91461871770192238</v>
       </c>
       <c r="B225">
-        <v>0.33046371919942591</v>
+        <v>0.88727381587005438</v>
       </c>
       <c r="C225">
-        <v>0.39045725094595224</v>
+        <v>0.89915448840792334</v>
       </c>
       <c r="D225">
-        <v>0.45403312038869559</v>
+        <v>0.055190924306344355</v>
+      </c>
+      <c r="E225">
+        <v>0.065458987150021172</v>
+      </c>
+      <c r="F225">
+        <v>0.076428424055671657</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.60954274905404771</v>
+        <v>0.94480907569365569</v>
       </c>
       <c r="B226">
-        <v>0.54596687961130441</v>
+        <v>0.93454101284997892</v>
       </c>
       <c r="C226">
-        <v>0.47164213833470797</v>
+        <v>0.92357157594432826</v>
       </c>
       <c r="D226">
-        <v>0.66953628080057404</v>
+        <v>0.085381282298077774</v>
+      </c>
+      <c r="E226">
+        <v>0.11272618412994577</v>
+      </c>
+      <c r="F226">
+        <v>0.10084551159207664</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>688.35167332693243</v>
+        <v>2072.0943831926493</v>
       </c>
       <c r="B227">
-        <v>540.07232584548001</v>
+        <v>3205.4358828868071</v>
       </c>
       <c r="C227">
-        <v>688.35167332693311</v>
+        <v>2539.1578096154703</v>
       </c>
       <c r="D227">
-        <v>540.07232584548012</v>
+        <v>2072.0943831926106</v>
+      </c>
+      <c r="E227">
+        <v>3205.4358828867857</v>
+      </c>
+      <c r="F227">
+        <v>2539.1578096154367</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9634162562411392</v>
+        <v>1.9611095086014636</v>
       </c>
       <c r="B228">
-        <v>1.9643661840946425</v>
+        <v>1.9607043368980002</v>
       </c>
       <c r="C228">
-        <v>1.9634162562411392</v>
+        <v>1.9608986973043916</v>
       </c>
       <c r="D228">
-        <v>1.9643661840946425</v>
+        <v>1.9611095086014636</v>
+      </c>
+      <c r="E228">
+        <v>1.9607043368980002</v>
+      </c>
+      <c r="F228">
+        <v>1.9608986973043916</v>
       </c>
     </row>
     <row r="229">
@@ -4395,47 +4491,71 @@
       <c r="D229">
         <v>0</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.94869630650176195</v>
+        <v>0.98739119120454055</v>
       </c>
       <c r="B231">
-        <v>0.98651207004653174</v>
+        <v>0.99261011954997935</v>
       </c>
       <c r="C231">
-        <v>0.051303693498238032</v>
+        <v>0.99391485354434272</v>
       </c>
       <c r="D231">
-        <v>0.013487929953468366</v>
+        <v>0.012608808795459291</v>
+      </c>
+      <c r="E231">
+        <v>0.0073898804500206958</v>
+      </c>
+      <c r="F231">
+        <v>0.0060851464556572633</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.0095956791596272552</v>
+        <v>0.0035337387065990274</v>
       </c>
       <c r="B232">
-        <v>0.013393740020811959</v>
+        <v>0.0043251731030189743</v>
       </c>
       <c r="C232">
-        <v>0.0095956791596272569</v>
+        <v>0.0017518283206585889</v>
       </c>
       <c r="D232">
-        <v>0.013393740020811958</v>
+        <v>0.0035337387065990265</v>
+      </c>
+      <c r="E232">
+        <v>0.004325173103018976</v>
+      </c>
+      <c r="F232">
+        <v>0.0017518283206585834</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>98.867030745806446</v>
+        <v>279.41827995393425</v>
       </c>
       <c r="B233">
-        <v>73.65471246370565</v>
+        <v>229.49604464550487</v>
       </c>
       <c r="C233">
-        <v>5.3465411509476644</v>
+        <v>567.35859434598399</v>
       </c>
       <c r="D233">
-        <v>1.007032384719283</v>
+        <v>3.5681214267238164</v>
+      </c>
+      <c r="E233">
+        <v>1.7085744949404569</v>
+      </c>
+      <c r="F233">
+        <v>3.4735974889192391</v>
       </c>
     </row>
     <row r="234">
@@ -4443,69 +4563,99 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>3.507380927205445e-213</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>1.2208699723995222e-07</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>0.31462461714500056</v>
+        <v>0.00036920567867206283</v>
+      </c>
+      <c r="E234">
+        <v>0.088166773647158886</v>
+      </c>
+      <c r="F234">
+        <v>0.00052240700697410208</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.92985599989318102</v>
+        <v>0.98046041185848232</v>
       </c>
       <c r="B235">
-        <v>0.96016845346099622</v>
+        <v>0.98411182223146387</v>
       </c>
       <c r="C235">
-        <v>0.032463386889657123</v>
+        <v>0.99047964262999677</v>
       </c>
       <c r="D235">
-        <v>-0.012855686632067199</v>
+        <v>0.0056780294494010097</v>
+      </c>
+      <c r="E235">
+        <v>-0.0011084168684947979</v>
+      </c>
+      <c r="F235">
+        <v>0.0026499355413113546</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.96753661311034289</v>
+        <v>0.99432197055059879</v>
       </c>
       <c r="B236">
-        <v>1.0128556866320673</v>
+        <v>1.0011084168684949</v>
       </c>
       <c r="C236">
-        <v>0.070144000106818941</v>
+        <v>0.99735006445868868</v>
       </c>
       <c r="D236">
-        <v>0.039831546539003934</v>
+        <v>0.019539588141517572</v>
+      </c>
+      <c r="E236">
+        <v>0.015888177768536189</v>
+      </c>
+      <c r="F236">
+        <v>0.0095203573700031723</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>688.47290032152</v>
+        <v>1755.4111080658256</v>
       </c>
       <c r="B237">
-        <v>345.17593375857507</v>
+        <v>487.14988604013769</v>
       </c>
       <c r="C237">
-        <v>688.47290032151932</v>
+        <v>2459.5244498599127</v>
       </c>
       <c r="D237">
-        <v>345.17593375857609</v>
+        <v>1755.4111080658336</v>
+      </c>
+      <c r="E237">
+        <v>487.14988604013172</v>
+      </c>
+      <c r="F237">
+        <v>2459.5244498602101</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.963415647310238</v>
+        <v>1.9613163059044245</v>
       </c>
       <c r="B238">
-        <v>1.9668603798939917</v>
+        <v>1.9648455948696417</v>
       </c>
       <c r="C238">
-        <v>1.963415647310238</v>
+        <v>1.9609289756512631</v>
       </c>
       <c r="D238">
-        <v>1.9668603798939917</v>
+        <v>1.9613163059044245</v>
+      </c>
+      <c r="E238">
+        <v>1.9648455948696417</v>
+      </c>
+      <c r="F238">
+        <v>1.9609289756512631</v>
       </c>
     </row>
     <row r="239">
@@ -4521,165 +4671,171 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.43610554932106388</v>
+        <v>0.88577482924722184</v>
       </c>
       <c r="B241">
-        <v>0.51827215524747172</v>
+        <v>0.91393213776722093</v>
       </c>
       <c r="C241">
-        <v>0.48350246773792022</v>
+        <v>0.91226151685336831</v>
       </c>
       <c r="D241">
-        <v>0.56389445067893607</v>
+        <v>0.11422517075277834</v>
       </c>
       <c r="E241">
-        <v>0.48172784475252828</v>
+        <v>0.086067862232779097</v>
       </c>
       <c r="F241">
-        <v>0.51649753226207962</v>
+        <v>0.087738483146631796</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.04476607746057424</v>
+        <v>0.012818799205140527</v>
       </c>
       <c r="B242">
-        <v>0.035888875336234451</v>
+        <v>0.007965550181312642</v>
       </c>
       <c r="C242">
-        <v>0.029335422621299203</v>
+        <v>0.0064632440171181887</v>
       </c>
       <c r="D242">
-        <v>0.04476607746057424</v>
+        <v>0.012818799205140527</v>
       </c>
       <c r="E242">
-        <v>0.035888875336234451</v>
+        <v>0.007965550181312642</v>
       </c>
       <c r="F242">
-        <v>0.029335422621299203</v>
+        <v>0.0064632440171181887</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>9.7418754123620666</v>
+        <v>69.099672681666874</v>
       </c>
       <c r="B243">
-        <v>14.441025258994648</v>
+        <v>114.735594775528</v>
       </c>
       <c r="C243">
-        <v>16.481864740099898</v>
+        <v>141.14607377304696</v>
       </c>
       <c r="D243">
-        <v>12.596467742244368</v>
+        <v>8.9107543479558036</v>
       </c>
       <c r="E243">
-        <v>13.422762352938985</v>
+        <v>10.805011615480902</v>
       </c>
       <c r="F243">
-        <v>17.60661637398988</v>
+        <v>13.574991585379189</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>4.1433464091875146e-21</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>1.5402710327829761e-41</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>8.96224359755281e-52</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>6.3882193046105001e-33</v>
+        <v>7.6391407503766364e-19</v>
       </c>
       <c r="E244">
-        <v>1.068265406986135e-36</v>
+        <v>7.8139313932042735e-27</v>
       </c>
       <c r="F244">
-        <v>1.1470464764346152e-57</v>
+        <v>4.7948154363755813e-41</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.34821280818282635</v>
+        <v>0.86064261664446262</v>
       </c>
       <c r="B245">
-        <v>0.44780871934674515</v>
+        <v>0.89831508210927624</v>
       </c>
       <c r="C245">
-        <v>0.42590593811333038</v>
+        <v>0.89958984455846358</v>
       </c>
       <c r="D245">
-        <v>0.47600170954069854</v>
+        <v>0.089092958150019164</v>
       </c>
       <c r="E245">
-        <v>0.41126440885180171</v>
+        <v>0.070450806574834449</v>
       </c>
       <c r="F245">
-        <v>0.45890100263748979</v>
+        <v>0.075066810851727089</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.52399829045930146</v>
+        <v>0.91090704184998106</v>
       </c>
       <c r="B246">
-        <v>0.58873559114819829</v>
+        <v>0.92954919342516562</v>
       </c>
       <c r="C246">
-        <v>0.5410989973625101</v>
+        <v>0.92493318914827305</v>
       </c>
       <c r="D246">
-        <v>0.65178719181717359</v>
+        <v>0.13935738335553752</v>
       </c>
       <c r="E246">
-        <v>0.55219128065325485</v>
+        <v>0.10168491789072374</v>
       </c>
       <c r="F246">
-        <v>0.57409406188666945</v>
+        <v>0.1004101554415365</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F247">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F248">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="249">
@@ -4704,162 +4860,162 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.61080371638050346</v>
+        <v>0.91967986398543111</v>
       </c>
       <c r="B251">
-        <v>0.53252046971625022</v>
+        <v>0.91423330166270811</v>
       </c>
       <c r="C251">
-        <v>0.5634563126872083</v>
+        <v>0.92385717861676431</v>
       </c>
       <c r="D251">
-        <v>0.38919628361949649</v>
+        <v>0.080320136014568971</v>
       </c>
       <c r="E251">
-        <v>0.46747953028374967</v>
+        <v>0.085766698337292169</v>
       </c>
       <c r="F251">
-        <v>0.43654368731279158</v>
+        <v>0.076142821383235582</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.043780180582031925</v>
+        <v>0.010891510394648602</v>
       </c>
       <c r="B252">
-        <v>0.035018636921174365</v>
+        <v>0.0076664435018274878</v>
       </c>
       <c r="C252">
-        <v>0.029023116812285858</v>
+        <v>0.0060693182046888568</v>
       </c>
       <c r="D252">
-        <v>0.043780180582031925</v>
+        <v>0.010891510394648602</v>
       </c>
       <c r="E252">
-        <v>0.035018636921174365</v>
+        <v>0.0076664435018274878</v>
       </c>
       <c r="F252">
-        <v>0.029023116812285858</v>
+        <v>0.0060693182046888568</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>13.951603402732124</v>
+        <v>84.440066681413029</v>
       </c>
       <c r="B253">
-        <v>15.206773208075854</v>
+        <v>119.25129317717894</v>
       </c>
       <c r="C253">
-        <v>19.414052471741766</v>
+        <v>152.21762106706444</v>
       </c>
       <c r="D253">
-        <v>8.8897825099247942</v>
+        <v>7.374563591660638</v>
       </c>
       <c r="E253">
-        <v>13.34944964694167</v>
+        <v>11.187286297335595</v>
       </c>
       <c r="F253">
-        <v>15.041240750820981</v>
+        <v>12.54553127967675</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>3.4584491192382566e-39</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>2.6563837200720636e-45</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>1.9905942996005174e-67</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>5.2051879327167002e-18</v>
+        <v>2.0046809460693431e-13</v>
       </c>
       <c r="E254">
-        <v>2.341465402590429e-36</v>
+        <v>1.2823090978296239e-28</v>
       </c>
       <c r="F254">
-        <v>1.7625915879781966e-44</v>
+        <v>2.0249929340489276e-35</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.52484666369321475</v>
+        <v>0.89832624494335256</v>
       </c>
       <c r="B255">
-        <v>0.46376564095919826</v>
+        <v>0.89920266697442119</v>
       </c>
       <c r="C255">
-        <v>0.50647295748362398</v>
+        <v>0.91195782727870234</v>
       </c>
       <c r="D255">
-        <v>0.30323923093220784</v>
+        <v>0.058966516972490418</v>
       </c>
       <c r="E255">
-        <v>0.3987247015266977</v>
+        <v>0.070736063649005254</v>
       </c>
       <c r="F255">
-        <v>0.37956033210920731</v>
+        <v>0.064243470045173584</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.69676076906779216</v>
+        <v>0.94103348302750967</v>
       </c>
       <c r="B256">
-        <v>0.60127529847330219</v>
+        <v>0.92926393635099502</v>
       </c>
       <c r="C256">
-        <v>0.62043966789079263</v>
+        <v>0.93575652995482628</v>
       </c>
       <c r="D256">
-        <v>0.47515333630678513</v>
+        <v>0.10167375505664752</v>
       </c>
       <c r="E256">
-        <v>0.53623435904080163</v>
+        <v>0.10079733302557908</v>
       </c>
       <c r="F256">
-        <v>0.49352704251637586</v>
+        <v>0.088042172721297579</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F257">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F258">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="259">
@@ -4884,162 +5040,162 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.95309073429843283</v>
+        <v>0.9904675339809238</v>
       </c>
       <c r="B261">
-        <v>0.94920737503627817</v>
+        <v>0.99161083135391925</v>
       </c>
       <c r="C261">
-        <v>0.9530412195748712</v>
+        <v>0.99242597360680096</v>
       </c>
       <c r="D261">
-        <v>0.046909265701567351</v>
+        <v>0.0095324660190763289</v>
       </c>
       <c r="E261">
-        <v>0.050792624963722013</v>
+        <v>0.0083891686460807607</v>
       </c>
       <c r="F261">
-        <v>0.046958780425128688</v>
+        <v>0.0075740263931990794</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.019504057736801375</v>
+        <v>0.0040599735787644597</v>
       </c>
       <c r="B262">
-        <v>0.018347769286291931</v>
+        <v>0.0028412828800747775</v>
       </c>
       <c r="C262">
-        <v>0.012867606593390233</v>
+        <v>0.0020682474353363343</v>
       </c>
       <c r="D262">
-        <v>0.019504057736801375</v>
+        <v>0.0040599735787644597</v>
       </c>
       <c r="E262">
-        <v>0.018347769286291931</v>
+        <v>0.0028412828800747775</v>
       </c>
       <c r="F262">
-        <v>0.012867606593390233</v>
+        <v>0.0020682474353363343</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>48.866279374270235</v>
+        <v>243.95910829605575</v>
       </c>
       <c r="B263">
-        <v>51.734211403315079</v>
+        <v>349.00109324131142</v>
       </c>
       <c r="C263">
-        <v>74.065150551340651</v>
+        <v>479.83909306548452</v>
       </c>
       <c r="D263">
-        <v>2.4051028936945906</v>
+        <v>2.3479133137554236</v>
       </c>
       <c r="E263">
-        <v>2.7683269922992997</v>
+        <v>2.9525988788064539</v>
       </c>
       <c r="F263">
-        <v>3.6493795551109121</v>
+        <v>3.6620504219155028</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>3.5890220337355873e-227</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>1.0789059899348854e-240</v>
+        <v>0</v>
       </c>
       <c r="C264">
         <v>0</v>
       </c>
       <c r="D264">
-        <v>0.016427943945907564</v>
+        <v>0.018928795852629764</v>
       </c>
       <c r="E264">
-        <v>0.0057843633649713507</v>
+        <v>0.0031699812870591504</v>
       </c>
       <c r="F264">
-        <v>0.00028254587118433451</v>
+        <v>0.00025353589070251683</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.91479689228567918</v>
+        <v>0.98250765275412566</v>
       </c>
       <c r="B265">
-        <v>0.91318376457444084</v>
+        <v>0.98604028420173484</v>
       </c>
       <c r="C265">
-        <v>0.92777724114438265</v>
+        <v>0.98837102014133604</v>
       </c>
       <c r="D265">
-        <v>0.0086154236888136976</v>
+        <v>0.0015725847922781547</v>
       </c>
       <c r="E265">
-        <v>0.014769014501884697</v>
+        <v>0.0028186214938963608</v>
       </c>
       <c r="F265">
-        <v>0.021694801994640162</v>
+        <v>0.0035190729277341107</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.99138457631118648</v>
+        <v>0.99842741520772194</v>
       </c>
       <c r="B266">
-        <v>0.9852309854981155</v>
+        <v>0.99718137850610367</v>
       </c>
       <c r="C266">
-        <v>0.97830519800535976</v>
+        <v>0.99648092707226588</v>
       </c>
       <c r="D266">
-        <v>0.085203107714321005</v>
+        <v>0.017492347245874503</v>
       </c>
       <c r="E266">
-        <v>0.086816235425559329</v>
+        <v>0.01395971579826516</v>
       </c>
       <c r="F266">
-        <v>0.072222758855617214</v>
+        <v>0.011628979858664047</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F267">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F268">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="269">
@@ -5064,162 +5220,162 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.51659945054945056</v>
+        <v>0.918764783655732</v>
       </c>
       <c r="B271">
-        <v>0.55237740628166154</v>
+        <v>0.93069006875477478</v>
       </c>
       <c r="C271">
-        <v>0.47313755494505488</v>
+        <v>0.89581180981415043</v>
       </c>
       <c r="D271">
-        <v>0.48340054945054944</v>
+        <v>0.081235216344268169</v>
       </c>
       <c r="E271">
-        <v>0.44762259371833835</v>
+        <v>0.069309931245225359</v>
       </c>
       <c r="F271">
-        <v>0.52686244505494506</v>
+        <v>0.10418819018584954</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.048393105010621308</v>
+        <v>0.010943353781621819</v>
       </c>
       <c r="B272">
-        <v>0.041692967963046744</v>
+        <v>0.0083856457858683987</v>
       </c>
       <c r="C272">
-        <v>0.024851102406573049</v>
+        <v>0.0064773490856087261</v>
       </c>
       <c r="D272">
-        <v>0.048393105010621308</v>
+        <v>0.010943353781621819</v>
       </c>
       <c r="E272">
-        <v>0.041692967963046744</v>
+        <v>0.0083856457858683987</v>
       </c>
       <c r="F272">
-        <v>0.024851102406573049</v>
+        <v>0.0064773490856087261</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>10.675063119757812</v>
+        <v>83.95641793091788</v>
       </c>
       <c r="B273">
-        <v>13.248694762417584</v>
+        <v>110.98609367965267</v>
       </c>
       <c r="C273">
-        <v>19.038896029816016</v>
+        <v>138.29914027706971</v>
       </c>
       <c r="D273">
-        <v>9.9890376809765105</v>
+        <v>7.4232468368786488</v>
       </c>
       <c r="E273">
-        <v>10.736165247700155</v>
+        <v>8.2653063359803927</v>
       </c>
       <c r="F273">
-        <v>21.200767532775181</v>
+        <v>16.085004653729911</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>9.6795678742577014e-25</v>
+        <v>0</v>
       </c>
       <c r="B274">
-        <v>6.8563387349578407e-36</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>2.2405888358071087e-65</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>4.7750488128104969e-22</v>
+        <v>1.3965690688597016e-13</v>
       </c>
       <c r="E274">
-        <v>5.4934823993048315e-25</v>
+        <v>1.8910786451637486e-16</v>
       </c>
       <c r="F274">
-        <v>2.4199680105832709e-77</v>
+        <v>2.075340792114336e-56</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.42158548254387573</v>
+        <v>0.89730952178403989</v>
       </c>
       <c r="B275">
-        <v>0.4705183413750198</v>
+        <v>0.91424938430927993</v>
       </c>
       <c r="C275">
-        <v>0.42434544192723633</v>
+        <v>0.88311248347970528</v>
       </c>
       <c r="D275">
-        <v>0.38838658144497462</v>
+        <v>0.0597799544725761</v>
       </c>
       <c r="E275">
-        <v>0.3657635288116966</v>
+        <v>0.052869246799730471</v>
       </c>
       <c r="F275">
-        <v>0.47807033203712657</v>
+        <v>0.09148886385140434</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.61161341855502538</v>
+        <v>0.94022004552742411</v>
       </c>
       <c r="B276">
-        <v>0.63423647118830329</v>
+        <v>0.94713075320026963</v>
       </c>
       <c r="C276">
-        <v>0.52192966796287343</v>
+        <v>0.90851113614859558</v>
       </c>
       <c r="D276">
-        <v>0.57841451745612427</v>
+        <v>0.10269047821596024</v>
       </c>
       <c r="E276">
-        <v>0.52948165862498009</v>
+        <v>0.085750615690720247</v>
       </c>
       <c r="F276">
-        <v>0.57565455807276356</v>
+        <v>0.11688751652029475</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F277">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F278">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="279">
@@ -5244,162 +5400,162 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.50000824175824177</v>
+        <v>0.91399143991487919</v>
       </c>
       <c r="B281">
-        <v>0.49981729989868284</v>
+        <v>0.92228343886285058</v>
       </c>
       <c r="C281">
-        <v>0.57739928803590779</v>
+        <v>0.91532395539923694</v>
       </c>
       <c r="D281">
-        <v>0.49999175824175823</v>
+        <v>0.086008560085120922</v>
       </c>
       <c r="E281">
-        <v>0.50018270010131716</v>
+        <v>0.077716561137149379</v>
       </c>
       <c r="F281">
-        <v>0.42260071196409221</v>
+        <v>0.084676044600762918</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.048228416759414493</v>
+        <v>0.011314056658977155</v>
       </c>
       <c r="B282">
-        <v>0.040981486079514268</v>
+        <v>0.008698739534146906</v>
       </c>
       <c r="C282">
-        <v>0.024506222155666411</v>
+        <v>0.0059267983503332317</v>
       </c>
       <c r="D282">
-        <v>0.048228416759414493</v>
+        <v>0.011314056658977155</v>
       </c>
       <c r="E282">
-        <v>0.040981486079514268</v>
+        <v>0.008698739534146906</v>
       </c>
       <c r="F282">
-        <v>0.024506222155666411</v>
+        <v>0.0059267983503332317</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>10.367502716344861</v>
+        <v>80.783707158623017</v>
       </c>
       <c r="B283">
-        <v>12.196173143377795</v>
+        <v>106.02495168896903</v>
       </c>
       <c r="C283">
-        <v>23.561334112136887</v>
+        <v>154.43818083464461</v>
       </c>
       <c r="D283">
-        <v>10.367160936174765</v>
+        <v>7.6019205734556135</v>
       </c>
       <c r="E283">
-        <v>12.205089369644586</v>
+        <v>8.9342324634589847</v>
       </c>
       <c r="F283">
-        <v>17.244629110096312</v>
+        <v>14.286979174177917</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1.6183215662586595e-23</v>
+        <v>0</v>
       </c>
       <c r="B284">
-        <v>3.8187794094943568e-31</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>1.0516586979858319e-90</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>1.6233418167107286e-23</v>
+        <v>3.6358881007947769e-14</v>
       </c>
       <c r="E284">
-        <v>3.4893697209179407e-31</v>
+        <v>6.2058413515759338e-19</v>
       </c>
       <c r="F284">
-        <v>9.3995221357683087e-56</v>
+        <v>3.6077294232120801e-45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.4053176190769156</v>
+        <v>0.89180938738385507</v>
       </c>
       <c r="B285">
-        <v>0.41935514302064691</v>
+        <v>0.90522891075537093</v>
       </c>
       <c r="C285">
-        <v>0.52928430538858739</v>
+        <v>0.9037040248729421</v>
       </c>
       <c r="D285">
-        <v>0.40530113556043207</v>
+        <v>0.063826507554096829</v>
       </c>
       <c r="E285">
-        <v>0.41972054322328123</v>
+        <v>0.060662033029669771</v>
       </c>
       <c r="F285">
-        <v>0.37448572931677182</v>
+        <v>0.07305611407446802</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.59469886443956788</v>
+        <v>0.93617349244590331</v>
       </c>
       <c r="B286">
-        <v>0.58027945677671877</v>
+        <v>0.93933796697033023</v>
       </c>
       <c r="C286">
-        <v>0.62551427068322818</v>
+        <v>0.92694388592553179</v>
       </c>
       <c r="D286">
-        <v>0.59468238092308434</v>
+        <v>0.10819061261614502</v>
       </c>
       <c r="E286">
-        <v>0.58064485697935309</v>
+        <v>0.094771089244628987</v>
       </c>
       <c r="F286">
-        <v>0.47071569461141261</v>
+        <v>0.096295975127057815</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F287">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F288">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="289">
@@ -5424,62 +5580,62 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.98339230769230768</v>
+        <v>0.99726859205776175</v>
       </c>
       <c r="B291">
-        <v>0.9478052938196555</v>
+        <v>0.99208035613917966</v>
       </c>
       <c r="C291">
-        <v>0.94946315701903727</v>
+        <v>0.99020537540018927</v>
       </c>
       <c r="D291">
-        <v>0.016607692307692309</v>
+        <v>0.0027314079422382674</v>
       </c>
       <c r="E291">
-        <v>0.052194706180344483</v>
+        <v>0.0079196438608203322</v>
       </c>
       <c r="F291">
-        <v>0.050536842980962705</v>
+        <v>0.009794624599810741</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.011515362727406437</v>
+        <v>0.0019244118940374207</v>
       </c>
       <c r="B292">
-        <v>0.019332453447771528</v>
+        <v>0.0030186086855651904</v>
       </c>
       <c r="C292">
-        <v>0.011317325269576909</v>
+        <v>0.0021904619629240056</v>
       </c>
       <c r="D292">
-        <v>0.011515362727406437</v>
+        <v>0.0019244118940374207</v>
       </c>
       <c r="E292">
-        <v>0.019332453447771528</v>
+        <v>0.0030186086855651904</v>
       </c>
       <c r="F292">
-        <v>0.011317325269576909</v>
+        <v>0.0021904619629240056</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>85.39829191414394</v>
+        <v>518.21992742182124</v>
       </c>
       <c r="B293">
-        <v>49.026643016637394</v>
+        <v>328.65484051750389</v>
       </c>
       <c r="C293">
-        <v>83.894660125336515</v>
+        <v>452.05321624411278</v>
       </c>
       <c r="D293">
-        <v>1.4422205101855963</v>
+        <v>1.4193468408199073</v>
       </c>
       <c r="E293">
-        <v>2.6998490554421082</v>
+        <v>2.6236073256833867</v>
       </c>
       <c r="F293">
-        <v>4.4654405327392341</v>
+        <v>4.4714880995861188</v>
       </c>
     </row>
     <row r="294">
@@ -5487,99 +5643,99 @@
         <v>0</v>
       </c>
       <c r="B294">
-        <v>6.1271805495443082e-228</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
       <c r="D294">
-        <v>0.1496899982313119</v>
+        <v>0.155878128609792</v>
       </c>
       <c r="E294">
-        <v>0.0071056069199569392</v>
+        <v>0.0087344163713031966</v>
       </c>
       <c r="F294">
-        <v>9.3208973416094101e-06</v>
+        <v>7.9894940852056926e-06</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.96078329540606888</v>
+        <v>0.9934956389065156</v>
       </c>
       <c r="B295">
-        <v>0.90984837592912804</v>
+        <v>0.98616214851020478</v>
       </c>
       <c r="C295">
-        <v>0.92724296716272914</v>
+        <v>0.98591081123162139</v>
       </c>
       <c r="D295">
-        <v>-0.006001319978546537</v>
+        <v>-0.0010415452090079083</v>
       </c>
       <c r="E295">
-        <v>0.014237788289816977</v>
+        <v>0.0020014362318454522</v>
       </c>
       <c r="F295">
-        <v>0.028316653124654537</v>
+        <v>0.0055000604312428324</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1.0060013199785465</v>
+        <v>1.001041545209008</v>
       </c>
       <c r="B296">
-        <v>0.98576221171018297</v>
+        <v>0.99799856376815455</v>
       </c>
       <c r="C296">
-        <v>0.97168334687534541</v>
+        <v>0.99449993956875715</v>
       </c>
       <c r="D296">
-        <v>0.039216704593931159</v>
+        <v>0.0065043610934844426</v>
       </c>
       <c r="E296">
-        <v>0.090151624070871988</v>
+        <v>0.013837851489795213</v>
       </c>
       <c r="F296">
-        <v>0.072757032837270877</v>
+        <v>0.01408918876837865</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="C297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="D297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="E297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="F297">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="C298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="D298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="E298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="F298">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="299">
@@ -5604,66 +5760,66 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.49320664969599004</v>
+        <v>0.90878691730387651</v>
       </c>
       <c r="B301">
-        <v>0.50679335030400985</v>
+        <v>0.091213082696123521</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.019362443978287212</v>
+        <v>0.0045699732908479436</v>
       </c>
       <c r="B302">
-        <v>0.019362443978287212</v>
+        <v>0.0045699732908479436</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>25.472334497084429</v>
+        <v>198.86044391634815</v>
       </c>
       <c r="B303">
-        <v>26.174038301792955</v>
+        <v>19.95921570893891</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1.2257793983363441e-101</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>1.1576172350416622e-105</v>
+        <v>1.8593879660978291e-84</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.45519084905127138</v>
+        <v>0.8998271435765165</v>
       </c>
       <c r="B305">
-        <v>0.46877754965929119</v>
+        <v>0.082253308968763511</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.5312224503407087</v>
+        <v>0.91774669103123652</v>
       </c>
       <c r="B306">
-        <v>0.5448091509487285</v>
+        <v>0.10017285642348353</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B307">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B308">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="309">
@@ -5676,66 +5832,66 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.55227095357068179</v>
+        <v>0.91774708426503993</v>
       </c>
       <c r="B311">
-        <v>0.44772904642931832</v>
+        <v>0.082252915734960089</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.019196993860664997</v>
+        <v>0.0043725536016372118</v>
       </c>
       <c r="B312">
-        <v>0.019196993860664997</v>
+        <v>0.0043725536016372118</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>28.768616460429016</v>
+        <v>209.88812668217687</v>
       </c>
       <c r="B313">
-        <v>23.322872824725106</v>
+        <v>18.81118523147714</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1.5763344436227536e-120</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>2.4039890637481115e-89</v>
+        <v>1.2735042001183628e-75</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.51457999408213251</v>
+        <v>0.90917436657325812</v>
       </c>
       <c r="B315">
-        <v>0.41003808694076904</v>
+        <v>0.073680198043178283</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.58996191305923107</v>
+        <v>0.92631980195682173</v>
       </c>
       <c r="B316">
-        <v>0.4854200059178676</v>
+        <v>0.090825633426741895</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B317">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B318">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="319">
@@ -5748,26 +5904,26 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.95452239673332817</v>
+        <v>0.99206618747660147</v>
       </c>
       <c r="B321">
-        <v>0.045477603266671801</v>
+        <v>0.0079338125233983474</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.0083005426573068107</v>
+        <v>0.0014592908067627905</v>
       </c>
       <c r="B322">
-        <v>0.0083005426573068107</v>
+        <v>0.0014592908067627905</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>114.99517997092397</v>
+        <v>679.82761412534751</v>
       </c>
       <c r="B323">
-        <v>5.4788710984623066</v>
+        <v>5.4367590658631473</v>
       </c>
     </row>
     <row r="324">
@@ -5775,39 +5931,39 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>5.9866981445651522e-08</v>
+        <v>5.7594156382328619e-08</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.93822529212933214</v>
+        <v>0.98920513893235817</v>
       </c>
       <c r="B325">
-        <v>0.029180498662675806</v>
+        <v>0.0050727639791550523</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.9708195013373242</v>
+        <v>0.99492723602084476</v>
       </c>
       <c r="B326">
-        <v>0.0617747078706678</v>
+        <v>0.010794861067641642</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
       <c r="B327">
-        <v>696.00855920114122</v>
+        <v>3886.0015420200461</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
       <c r="B328">
-        <v>1.9633782123449437</v>
+        <v>1.9605746373405077</v>
       </c>
     </row>
     <row r="329">
